--- a/artifacts/recipes/new_data/allrecipescom/mexican/mexican_desserts.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/mexican/mexican_desserts.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -103,12 +476,12 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ingredients</t>
+          <t>recipe_ingredients</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -127,100 +500,68 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699641163-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Mexican Cookies</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14695/desserts/cookies/international-cookies/mexican-cookies/</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Mexican Cookies</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699641171-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>Mexican Cookies</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14695/desserts/cookies/international-cookies/mexican-cookies/</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/zHrKFyKCLp5qJmPa0fqmqJSDk2M=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/291441-3380487ef82f478badedb13fbb3ee4d6.jpg"
@@ -231,69 +572,65 @@
 Mexican Hot Chocolate Brownie Tortes</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/260760/mexican-hot-chocolate-brownie-tortes/</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Mexican Hot Chocolate Brownie Tortes</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n22 mins\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n57 mins\n\n\nServings:\n8 \n\n\nYield:\n8 2-layer brownie tortes"}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 (18.25 ounce) package brownie mix (such as Betty Crocker®)\n\n\n½ cup vegetable oil\n\n\n2  eggs\n\n\n3 tablespoons water\n\n\n1 pint heavy whipping cream\n\n\n3 tablespoons sugar\n\n\n1 tablespoon ground cinnamon\n\n\n¼ teaspoon ground red chile pepper\n\n\n½ cup strong brewed coffee"}]</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (18.25 ounce) package brownie mix (such as Betty Crocker®)\n\n\n½ cup vegetable oil\n\n\n2  eggs\n\n\n3 tablespoons water\n\n\n1 pint heavy whipping cream\n\n\n3 tablespoons sugar\n\n\n1 tablespoon ground cinnamon\n\n\n¼ teaspoon ground red chile pepper\n\n\n½ cup strong brewed coffee'}]</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Grease the bottom of a 9x13-inch baking pan."},{"recipe_directions":"Stir brownie mix, oil, eggs, and water together in a bowl until well blended. Pour batter into the pan."},{"recipe_directions":"Bake in the preheated oven until a toothpick inserted into the center comes out clean, 22 to 25 minutes. Let brownies cool completely, at least 20 minutes."},{"recipe_directions":"Beat cream in a bowl with an electric mixer until soft peaks form. Add sugar gradually, continuing to beat until fully incorporated. Beat in cinnamon and ground chile pepper."},{"recipe_directions":"Cut brownies into an even number of circles using a cookie cutter. Poke small holes into brownies with a toothpick. Brush on coffee, making sure it seeps into the brownie. Spread cinnamon-chile whipped cream on top, cover with another brownie circle, and pipe or spread more whipped cream on top. Repeat with the remaining brownies and whipped cream."}]</t>
         </is>
       </c>
-      <c r="L3" s="1" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="M3" s="1" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"645\nCalories\n\n\n47g \nFat\n\n\n57g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699641181-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>Mexican Cookies</t>
         </is>
       </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14695/desserts/cookies/international-cookies/mexican-cookies/</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/bW3qiH0pRFzBoru4maXVCvdc4pM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2591x0:2593x2):format(webp)/4583492-47aa487ec0014718907c70eb4ff84b72.jpg"
@@ -306,69 +643,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/9631/mexican-bride-cookies/</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mexican Bride Cookies</t>
         </is>
       </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Servings:\n24 \n\n\nYield:\n2 dozen"}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2 cups all-purpose flour\n\n\n½ cup confectioners' sugar\n\n\n1 cup butter, softened\n\n\n1 pinch salt\n\n\n1 cup chopped pecans\n\n\n1 tablespoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "2 cups all-purpose flour\n\n\n½ cup confectioners' sugar\n\n\n1 cup butter, softened\n\n\n1 pinch salt\n\n\n1 cup chopped pecans\n\n\n1 tablespoon vanilla extract"}]</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven 350 degrees F (150 degrees C)."},{"recipe_directions":"Mix the flour, sugar, salt, and nuts together in a medium bowl. Stir in the vanilla. Either with your hands (my favorite way) or with a pastry cutter, work the butter into the flour mixture until it becomes a ball. Shape the dough into 24 one inch flat circles, and place on a cookie sheet."},{"recipe_directions":"Bake for 30 minutes or until they are lightly browned. After they have cooled on a rack, dust them heavily with confectioners' sugar."}]</t>
         </is>
       </c>
-      <c r="L4" s="1" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="M4" s="1" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"148\nCalories\n\n\n11g \nFat\n\n\n11g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699641192-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Mexican Cookies</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14695/desserts/cookies/international-cookies/mexican-cookies/</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/i9JW-1TZecJUuqQBkJcF0aRM9tI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/337381-241819294a9a40c2aa6f6c3b448cb0b9.jpg"
@@ -381,69 +714,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/71398/nutty-bunuelos/</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Nutty Bunuelos</t>
         </is>
       </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Cook Time:\n4 mins\n\n\nTotal Time:\n4 mins\n\n\nServings:\n15 \n\n\nYield:\n15 bunuelos"}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2  eggs\n\n\n1 ½ cups cake flour\n\n\n1 tablespoon confectioners' sugar\n\n\n¼ teaspoon salt\n\n\n1 quart oil for frying, or as needed\n\n\n2 tablespoons honey\n\n\n½ cup chopped walnuts"}]</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "2  eggs\n\n\n1 ½ cups cake flour\n\n\n1 tablespoon confectioners' sugar\n\n\n¼ teaspoon salt\n\n\n1 quart oil for frying, or as needed\n\n\n2 tablespoons honey\n\n\n½ cup chopped walnuts"}]</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk eggs together in a large bowl. Combine the cake flour, confectioners' sugar and salt; gradually stir into the eggs to make a stiff dough."},{"recipe_directions":"Heat oil in a deep-fryer or large heavy skillet to 375 degrees F (190 degrees C). Pinch off walnut sized pieces of dough, and roll them out into thin circles on a lightly floured surface."},{"recipe_directions":"Fry in hot oil for 3 to 4 minutes, turning once to brown evenly on both sides. Drain on paper towels, and cool. Drizzle honey over the tops, and sprinkle with chopped nuts."}]</t>
         </is>
       </c>
-      <c r="L5" s="1" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="M5" s="1" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"148\nCalories\n\n\n9g \nFat\n\n\n14g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699641200-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Mexican Cookies</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14695/desserts/cookies/international-cookies/mexican-cookies/</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -455,69 +784,65 @@
 Chocolate-Dipped Palmiers (Orejas con Chocolate)</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/286012/chocolate-dipped-palmiers-orejas-con-chocolate/</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Chocolate-Dipped Palmiers (Orejas con Chocolate)</t>
         </is>
       </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n 1 hr\n\n\nCook Time:\n40 mins\n\n\nAdditional Time:\n 1 hr 35 mins\n\n\nTotal Time:\n 3 hrs 15 mins\n\n\nServings:\n40 \n\n\nYield:\n40 palmiers"}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2 ⅔ cups all-purpose flour\n\n\n¾ teaspoon kosher salt, divided, or to taste\n\n\n¾ pound cold unsalted butter, cut into small chunks\n\n\n¾ cup ice water\n\n\n1 ½ cups white sugar\n\n\n1 teaspoon ground cinnamon\n\n\n½ cup heavy cream\n\n\n¼ pound bittersweet chocolate, finely chopped\n\n\n  rainbow sprinkles as needed (optional)"}]</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 ⅔ cups all-purpose flour\n\n\n¾ teaspoon kosher salt, divided, or to taste\n\n\n¾ pound cold unsalted butter, cut into small chunks\n\n\n¾ cup ice water\n\n\n1 ½ cups white sugar\n\n\n1 teaspoon ground cinnamon\n\n\n½ cup heavy cream\n\n\n¼ pound bittersweet chocolate, finely chopped\n\n\n  rainbow sprinkles as needed (optional)'}]</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place flour and 1/2 teaspoon kosher salt in a food processor. Add butter and pulse a few times until it has broken down into bits about the size of peas. Gradually add water, pulsing until you have a very crumbly mixture; it should not come together into a ball of dough."},{"recipe_directions":"Lightly flour your work surface and your hands and scrape the mixture out of the food processor. Gently press it together into one piece with your hands; do not knead. Lightly flour a rolling pin and roll out the dough into a more or less equilateral triangle that is 3/4- to 1-inch thick. The dough will still be ragged and the corners slightly rounded."},{"recipe_directions":"Fold the two bottom tips of the triangle over to meet in the middle, then fold the top down, without overlapping the folded flaps (the dough will look like an envelope). Turn the dough clockwise a quarter turn and roll out it into a rectangle about 1/3 inch thick. (Folding and rolling the dough several times will create the pastry's flaky layers.)"},{"recipe_directions":"Fold the two long sides over to meet in the center, without overlapping, then fold the dough in half from top to bottom. Turn the dough clockwise another quarter turn and roll out into another rough triangle. Repeat the folding and rolling process 2 more times, for a total of 3 turns. Tightly wrap the puff pastry in plastic wrap and refrigerate for at least 45 minutes."},{"recipe_directions":"Mix sugar, cinnamon, and remaining kosher salt together in a bowl. Spread 1 cup of the cinnamon sugar into a large rectangle on a large work surface. Place the puff pastry on the center of the cinnamon sugar."},{"recipe_directions":"With a rolling pin, gently roll the pastry out into a large 12x12-inch rectangle about 1/4-inch thick. Sprinkle the top of the rectangle evenly with the remaining cinnamon sugar. Without cutting all the way through the dough, score a line lengthwise down the middle of the puff pastry rectangle with the back of a knife or a ruler. Tightly roll up each long side of the dough to the center line, creating two long rolled spirals that meet in the middle. Gently press the two rolls together in the middle. Cut the rolled pastry crosswise in half and wrap each roll in plastic wrap. Refrigerate for at least 30 minutes (see note)."},{"recipe_directions":"Scrape the cinnamon sugar remaining on the work surface into a wide bowl or onto a plate and set aside."},{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C) with racks in the upper and lower thirds. Line two baking sheets with parchment paper."},{"recipe_directions":"Take one roll at a time from the refrigerator and slice crosswise into 1/2-inch thick slices. Dip both sides of the slices in the remaining cinnamon sugar to coat, and place on the baking sheets, leaving 1 inch between the slices."},{"recipe_directions":"Bake in the preheated oven for 10 to 12 minutes, then switch the baking sheets from top to bottom. Bake until the cookies are golden brown, 8 to 10 minutes more. If they appear to be browning too fast or if the caramel is burning at all, turn the heat down to 375 degrees F (190 degrees C) after the first 10 minutes. Transfer the cookies to a cooling rack and cool completely. Repeat with the remaining puff pastry and cinnamon sugar."},{"recipe_directions":"Bring the cream to a simmer in a small saucepan. Place the chocolate in a medium bowl and pour the hot cream over it. Let sit for 5 minutes, then stir until smooth."},{"recipe_directions":"If using sprinkles, place them on a small plate. Place a piece of parchment under the cooling rack to catch drips. Dip the top of each cookie into the chocolate and then, if using sprinkles, lightly press the chocolate-dipped side into them, and return to the cooling rack. Let the chocolate set before serving or storing."}]</t>
         </is>
       </c>
-      <c r="L6" s="1" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Desserts"},{"recipe_tags":"Cookies"},{"recipe_tags":"International Cookie Recipes"},{"recipe_tags":"Mexican Cookie Recipes"}]</t>
         </is>
       </c>
-      <c r="M6" s="1" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"147\nCalories\n\n\n9g \nFat\n\n\n16g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699641206-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Mexican Cookies</t>
         </is>
       </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14695/desserts/cookies/international-cookies/mexican-cookies/</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/N74xliAXq98RUhctDRXVOgSn6cI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1628x0:1630x2):format(webp)/6057958-322e024727c046eea855e90bda7b13b9.jpg"
@@ -530,69 +855,65 @@
 Rating</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/260782/mexican-coconut-hot-chocolate-cookies/</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Mexican Coconut Hot Chocolate Cookies</t>
         </is>
       </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n48 \n\n\nYield:\n4 dozen cookies"}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup butter, softened\n\n\n1 cup white sugar\n\n\n1 cup brown sugar\n\n\n2  eggs\n\n\n1 tablespoon instant coffee granules\n\n\n2 teaspoons vanilla extract\n\n\n1 ¾ cups all-purpose flour\n\n\n⅔ cup cocoa powder\n\n\n1 tablespoon ground cinnamon\n\n\n1 teaspoon cayenne pepper, or more to taste\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon baking powder\n\n\n¼ teaspoon cream of tartar\n\n\n¼ teaspoon chili powder\n\n\n1 cup sweetened flaked coconut (Optional)\n\n\n2 cups milk chocolate chips"}]</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup butter, softened\n\n\n1 cup white sugar\n\n\n1 cup brown sugar\n\n\n2  eggs\n\n\n1 tablespoon instant coffee granules\n\n\n2 teaspoons vanilla extract\n\n\n1 ¾ cups all-purpose flour\n\n\n⅔ cup cocoa powder\n\n\n1 tablespoon ground cinnamon\n\n\n1 teaspoon cayenne pepper, or more to taste\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon baking powder\n\n\n¼ teaspoon cream of tartar\n\n\n¼ teaspoon chili powder\n\n\n1 cup sweetened flaked coconut (Optional)\n\n\n2 cups milk chocolate chips'}]</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Beat butter, white sugar, brown sugar, eggs, instant coffee, and vanilla extract together in a large bowl using an electric mixer until fluffy."},{"recipe_directions":"Combine flour, cocoa powder, cinnamon, cayenne pepper, salt, baking powder, cream of tartar, and chili powder in a separate bowl. Stir flour mixture into the butter mixture slowly until blended. Fold in coconut and chocolate chips."},{"recipe_directions":"Drop batter by teaspoonfuls onto ungreased baking sheets."},{"recipe_directions":"Bake in the preheated oven until set, 10 to 12 minutes. Cool slightly on the baking sheet before transferring to a rack to cool completely, about 15 minutes."}]</t>
         </is>
       </c>
-      <c r="L7" s="1" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="M7" s="1" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"131\nCalories\n\n\n7g \nFat\n\n\n18g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699641213-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Mexican Cookies</t>
         </is>
       </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14695/desserts/cookies/international-cookies/mexican-cookies/</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/NohBZ9cbtj55zjkIKrPwFNTrSUs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/151932-844050fa62e04ea9b6798f6240a44d69.jpg"
@@ -605,69 +926,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/10875/biscochitos-ii/</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Biscochitos II</t>
         </is>
       </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Servings:\n36 \n\n\nYield:\n3 dozen"}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup shortening\n\n\n1 cup margarine\n\n\n1 ½ cups white sugar\n\n\n2  eggs\n\n\n1 teaspoon anise extract\n\n\n1 teaspoon vanilla extract\n\n\n6 cups all-purpose flour\n\n\n1 teaspoon salt\n\n\n½ cup wine\n\n\n3 teaspoons baking powder"}]</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup shortening\n\n\n1 cup margarine\n\n\n1 ½ cups white sugar\n\n\n2  eggs\n\n\n1 teaspoon anise extract\n\n\n1 teaspoon vanilla extract\n\n\n6 cups all-purpose flour\n\n\n1 teaspoon salt\n\n\n½ cup wine\n\n\n3 teaspoons baking powder'}]</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Mix together shortening, margarine and sugar with a mixture until well blended. Mix in the rest of the ingredients until smooth."},{"recipe_directions":"Roll out on a floured board to 1/2 or 1/4 inch thickness."},{"recipe_directions":"Cut into desired shapes and place on baking sheets. Bake until golden brown, about 10 - 12 minutes. Garnish as desired or leave plain."}]</t>
         </is>
       </c>
-      <c r="L8" s="1" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="M8" s="1" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"211\nCalories\n\n\n11g \nFat\n\n\n25g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699641219-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Mexican Cookies</t>
         </is>
       </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14695/desserts/cookies/international-cookies/mexican-cookies/</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/cF-17R5xCsCweixjxck6yROvvOc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/500715-97a6900c9ba041419b673d3164a80272.jpg"
@@ -680,69 +997,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/216168/mexican-oatmeal-cookies/</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Mexican Oatmeal Cookies</t>
         </is>
       </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n36 \n\n\nYield:\n3 dozen cookies"}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"3 cups rolled oats\n\n\n1  block of Mexican chocolate\n\n\n1 cup butter, softened\n\n\n1 cup brown sugar\n\n\n½ cup white sugar\n\n\n2  eggs\n\n\n1 teaspoon vanilla extract\n\n\n1 ½ cups all-purpose flour\n\n\n1 teaspoon baking soda\n\n\n2 teaspoons ground cinnamon, or more to taste\n\n\n½ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups rolled oats\n\n\n1  block of Mexican chocolate\n\n\n1 cup butter, softened\n\n\n1 cup brown sugar\n\n\n½ cup white sugar\n\n\n2  eggs\n\n\n1 teaspoon vanilla extract\n\n\n1 ½ cups all-purpose flour\n\n\n1 teaspoon baking soda\n\n\n2 teaspoons ground cinnamon, or more to taste\n\n\n½ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Place the oatmeal in a blender and pulse the blender on high for 2 seconds, 5 or 6 times; transfer to a bowl."},{"recipe_directions":"Break the chocolate along the scores and pulse until it reaches a powdered form. Make sure to stir with a spoon between pulses so the heat from the blender doesn't melt the chocolate. Add the chocolate to the oatmeal; set aside."},{"recipe_directions":"Beat the butter, brown sugar, and white sugar together with an electric mixer in a large bowl until smooth. Beat one egg into the mixture until completely incorporated. Add the second egg along with the vanilla extract and continue beating."},{"recipe_directions":"Stir the flour, cinnamon, baking soda, and salt together in a separate bowl; add to the butter mixture and stir until combined. Mix the oatmeal and chocolate into the mixture. Drop teaspoonfuls of the dough 2 inches apart onto ungreased baking sheets."},{"recipe_directions":"Bake in the preheated oven until golden-brown on the edges and set in the middle, 10 to 12 minutes. Allow the cookies to cool briefly on the baking sheets before being moved to cooking racks to cool completely."}]</t>
         </is>
       </c>
-      <c r="L9" s="1" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="M9" s="1" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"138\nCalories\n\n\n6g \nFat\n\n\n19g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699641226-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Mexican Cookies</t>
         </is>
       </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14695/desserts/cookies/international-cookies/mexican-cookies/</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/csid6SV-j7JMDk541nz--3idOcI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4254003-c90b09fc01e24ad9bff004772a300c3f.jpg"
@@ -755,69 +1068,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/221149/chef-johns-chili-chocolate-cookies/</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Chef John's Chili Chocolate Cookies</t>
         </is>
       </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n12 \n\n\nYield:\n24 cookies"}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"½ cup dried currants\n\n\n2 tablespoons coffee flavored liqueur (such as Kahlua®)\n\n\n4 ounces unsweetened chocolate\n\n\n2 ounces bittersweet chocolate\n\n\n3 tablespoons unsalted butter\n\n\n½ cup all-purpose flour\n\n\n½ teaspoon freshly ground black pepper\n\n\n¼ teaspoon baking powder\n\n\n¼ teaspoon salt\n\n\n⅛ teaspoon ground cinnamon\n\n\n⅛ teaspoon cayenne pepper\n\n\n¾ cup sugar\n\n\n2  eggs\n\n\n2 teaspoons vanilla extract\n\n\n1 cup dark chocolate chips"}]</t>
-        </is>
-      </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup dried currants\n\n\n2 tablespoons coffee flavored liqueur (such as Kahlua®)\n\n\n4 ounces unsweetened chocolate\n\n\n2 ounces bittersweet chocolate\n\n\n3 tablespoons unsalted butter\n\n\n½ cup all-purpose flour\n\n\n½ teaspoon freshly ground black pepper\n\n\n¼ teaspoon baking powder\n\n\n¼ teaspoon salt\n\n\n⅛ teaspoon ground cinnamon\n\n\n⅛ teaspoon cayenne pepper\n\n\n¾ cup sugar\n\n\n2  eggs\n\n\n2 teaspoons vanilla extract\n\n\n1 cup dark chocolate chips'}]</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Line two baking sheets with parchment paper or silicone baking mats."},{"recipe_directions":"Heat currants and coffee liqueur in a saucepan over low heat until it begins to simmer, about 2 minutes. Remove from heat and set aside."},{"recipe_directions":"Combine unsweetened chocolate, bittersweet chocolate, and butter in bowl. Place bowl on top of a saucepan filled with 1-inch of water set over low heat. Stir chocolate mixture occasionally until melted, about 5 minutes. Remove from heat and set aside."},{"recipe_directions":"Mix flour, black pepper, baking powder, salt, cinnamon, and cayenne pepper in large bowl and set aside."},{"recipe_directions":"Whisk sugar and eggs in a small bowl until light, fluffy, and pale yellow, about 5 minutes. Slowly whisk in vanilla and melted chocolate mixture."},{"recipe_directions":"Fold flour mixture into sugar and chocolate mixture until combined."},{"recipe_directions":"Stir in dark chocolate chips and liqueur-soaked currants."},{"recipe_directions":"Drop spoonfuls of cookie dough 2 inches apart onto prepared baking sheets."},{"recipe_directions":"Bake in the preheated oven until cookies are almost set, about 12 minutes."},{"recipe_directions":"Remove from the oven and leave on baking sheets to cool, 5 minutes."},{"recipe_directions":"Transfer to cooling rack and allow to finish cooling, 5 minutes."}]</t>
         </is>
       </c>
-      <c r="L10" s="1" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="M10" s="1" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"272\nCalories\n\n\n14g \nFat\n\n\n36g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699641233-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Mexican Cookies</t>
         </is>
       </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14695/desserts/cookies/international-cookies/mexican-cookies/</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/k6Suam7mECRQ0r8qYwuRo4leqwU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/7511522-6ee1fa4a540947f6b2959fe8b1b20824.jpg"
@@ -830,69 +1139,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/214611/mexican-pecan-cookies/</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Mexican Pecan Cookies</t>
         </is>
       </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n90 \n\n\nYield:\n7 1/2 dozen cookies"}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"4 cups all-purpose flour\n\n\n2 cups very soft butter\n\n\n3 ½ cups chopped pecans\n\n\n¼ cup confectioners' sugar\n\n\n1 cup confectioners' sugar for rolling"}]</t>
-        </is>
-      </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "4 cups all-purpose flour\n\n\n2 cups very soft butter\n\n\n3 ½ cups chopped pecans\n\n\n¼ cup confectioners' sugar\n\n\n1 cup confectioners' sugar for rolling"}]</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 375 degrees F (190 degrees C)."},{"recipe_directions":"Mash together the flour, butter, pecans, and 1/4 cup of confectioners' sugar in a bowl until the mixture is thoroughly combined and forms a soft dough. Pinch off about 2 teaspoons of dough per cookie, and roll into 3/4-inch balls. Place the balls on ungreased cookie sheets."},{"recipe_directions":"Bake in the preheated oven until the bottoms of the cookies are lightly golden brown but the tops are still pale, 8 to 12 minutes."},{"recipe_directions":"Let the cookies cool completely, then roll in remaining confectioners' sugar."}]</t>
         </is>
       </c>
-      <c r="L11" s="1" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="M11" s="1" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"92\nCalories\n\n\n7g \nFat\n\n\n7g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699641239-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>Mexican Cookies</t>
         </is>
       </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14695/desserts/cookies/international-cookies/mexican-cookies/</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/YO7Kv861OEpzCiQrMNxORDFbX2Q=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/802264-16b9c14f47f143a1b49202ed00692141.jpg"
@@ -905,69 +1210,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/214539/mexican-brownies/</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Mexican Brownies</t>
         </is>
       </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n30 \n\n\nYield:\n30 brownies"}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 ½ cups unsalted butter\n\n\n3 cups white sugar\n\n\n6  eggs\n\n\n1 tablespoon vanilla extract\n\n\n1 ¼ cups unsweetened cocoa powder\n\n\n1 ½ cups all-purpose flour\n\n\n1 ¾ teaspoons ground Mexican cinnamon (canela)\n\n\n½ teaspoon ground pequin chile pepper\n\n\n¾ teaspoon kosher salt\n\n\n¾ teaspoon baking powder"}]</t>
-        </is>
-      </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups unsalted butter\n\n\n3 cups white sugar\n\n\n6  eggs\n\n\n1 tablespoon vanilla extract\n\n\n1 ¼ cups unsweetened cocoa powder\n\n\n1 ½ cups all-purpose flour\n\n\n1 ¾ teaspoons ground Mexican cinnamon (canela)\n\n\n½ teaspoon ground pequin chile pepper\n\n\n¾ teaspoon kosher salt\n\n\n¾ teaspoon baking powder'}]</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Line a 12x15-inch baking pan with parchment paper, leaving about 3 inches of paper overhanging 2 sides to use as handles."},{"recipe_directions":"Place the butter in a microwave-safe bowl, and cook on Medium until the butter is about half melted, about 1 minute. Mash the butter with sugar until well combined, and stir in eggs one at a time, incorporating each one before adding the next. Mix in vanilla extract."},{"recipe_directions":"Sift the cocoa, flour, cinnamon, pequin pepper, salt, and baking powder into a bowl. Sprinkle in any salt caught in the sifter. Mix the flour mixture into the butter mixture, stirring to blend well, and pour the batter into the prepared baking pan."},{"recipe_directions":"Bake in the preheated oven until a toothpick inserted into the center comes out with moist crumbs, 20 to 25 minutes. Let cool in the pan, and use parchment paper handles to remove the brownies for slicing."}]</t>
         </is>
       </c>
-      <c r="L12" s="1" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="M12" s="1" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"206\nCalories\n\n\n11g \nFat\n\n\n27g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699641246-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>Mexican Cookies</t>
         </is>
       </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14695/desserts/cookies/international-cookies/mexican-cookies/</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/apDpGStXHnQ6NQFvI10NeWesfqM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/804723-1936a2361cf34b2c9239508b26f41679.jpg"
@@ -980,69 +1281,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/9843/chocolate-mexican-wedding-cookies/</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Chocolate Mexican Wedding Cookies</t>
         </is>
       </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Servings:\n8 \n\n\nYield:\n16 cookies"}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup butter, softened\n\n\n⅓ cup confectioners' sugar\n\n\n2 teaspoons vanilla extract\n\n\n1 ¾ cups all-purpose flour\n\n\n1 cup ground pecans\n\n\n½ cup German sweet chocolate, grated\n\n\n¾ teaspoon ground cinnamon\n\n\n1 pinch salt\n\n\n½ cup confectioners' sugar\n\n\n¼ cup German sweet chocolate, grated"}]</t>
-        </is>
-      </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "1 cup butter, softened\n\n\n⅓ cup confectioners' sugar\n\n\n2 teaspoons vanilla extract\n\n\n1 ¾ cups all-purpose flour\n\n\n1 cup ground pecans\n\n\n½ cup German sweet chocolate, grated\n\n\n¾ teaspoon ground cinnamon\n\n\n1 pinch salt\n\n\n½ cup confectioners' sugar\n\n\n¼ cup German sweet chocolate, grated"}]</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large bowl, cream the butter and 1/3 cup confectioner's sugar until light and fluffy. Add the vanilla extract."},{"recipe_directions":"In a separate bowl, combine the flour, ground pecans, 1/2 cup ground chocolate, cinnamon and salt; mix well."},{"recipe_directions":"Gradually add the dry ingredients to the creamed mixture."},{"recipe_directions":"Wrap dough in plastic wrap and chill 1 to 2 hours, or until firm."},{"recipe_directions":"Preheat oven to 325 degrees F (180 degrees C)."},{"recipe_directions":"Shape the dough into 1-inch balls. Place balls 1 inch apart on an ungreased baking sheet. Bake 15 to 18 minutes, or until the cookies are firm to the touch. Cool 1 minute on the baking sheet, then transfer to a wire rack."},{"recipe_directions":"For the coating, sift 1/2 cup of the confectioner's sugar and 1/4 cup of the ground cocoa into a shallow bowl. While cookies are still warm, roll them in the coating."}]</t>
         </is>
       </c>
-      <c r="L13" s="1" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="M13" s="1" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"517\nCalories\n\n\n37g \nFat\n\n\n46g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699641253-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>Mexican Cookies</t>
         </is>
       </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14695/desserts/cookies/international-cookies/mexican-cookies/</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/4PDYojAe-5i2JAasqccDV7a19Ik=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/9118-ef987435cbff4be0a40e427834b60e97.jpg"
@@ -1055,69 +1352,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/72087/anise-seed-borrachio-cookies/</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Anise Seed Borrachio Cookies</t>
         </is>
       </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n36 \n\n\nYield:\n3 dozen"}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2 tablespoons anise seed\n\n\n3 tablespoons rum\n\n\n1 ¼ cups butter\n\n\n¾ cup white sugar\n\n\n1 ½ teaspoons vanilla extract\n\n\n2 ½ cups all-purpose flour\n\n\n1  egg\n\n\n½ teaspoon salt\n\n\n1 teaspoon baking powder\n\n\n1 ½ teaspoons ground cloves"}]</t>
-        </is>
-      </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons anise seed\n\n\n3 tablespoons rum\n\n\n1 ¼ cups butter\n\n\n¾ cup white sugar\n\n\n1 ½ teaspoons vanilla extract\n\n\n2 ½ cups all-purpose flour\n\n\n1  egg\n\n\n½ teaspoon salt\n\n\n1 teaspoon baking powder\n\n\n1 ½ teaspoons ground cloves'}]</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place the anise seeds in a small bowl with the rum. Set aside to marinate overnight."},{"recipe_directions":"In a medium bowl, cream together the butter, sugar and vanilla until smooth. Stir in the anise seed and rum. Mix in the egg. Combine the flour, salt, baking powder and cloves; stir into the butter mixture until well blended. Cover and refrigerate until chilled, about 1 hour."},{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). On a lightly floured surface, roll the dough out to 1/8 inch thickness. Cut into desired shapes using cookie cutters. Place cookies on a greased cookie sheet."},{"recipe_directions":"Bake for 10 minutes in the preheated oven, or until golden brown at the edges. Cool for a few minutes on baking sheets before removing to wire racks to cool completely."}]</t>
         </is>
       </c>
-      <c r="L14" s="1" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="M14" s="1" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"111\nCalories\n\n\n7g \nFat\n\n\n11g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699641258-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>Mexican Cookies</t>
         </is>
       </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14695/desserts/cookies/international-cookies/mexican-cookies/</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/NwE1deb12FZaBkbRF40yiiYr_vs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/408586-1d78ba42a04f4e7aa8295d85de6493e3.jpg"
@@ -1128,69 +1421,65 @@
 Coricos Sonorenses (Corn Flour Cookies)</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/266327/coricos-sonorenses/</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Coricos Sonorenses (Corn Flour Cookies)</t>
         </is>
       </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n35 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n100 \n\n\nYield:\n100 cookies"}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 pound vegetable shortening\n\n\n1 ¾ cups white sugar\n\n\n4  eggs\n\n\n2  oranges, zested (Optional)\n\n\n1 tablespoon vanilla extract\n\n\n2 pounds white masa harina (corn flour)\n\n\n3 tablespoons baking powder\n\n\n1 ½ teaspoons ground cinnamon (Optional)\n\n\n1 teaspoon all-purpose flour"}]</t>
-        </is>
-      </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound vegetable shortening\n\n\n1 ¾ cups white sugar\n\n\n4  eggs\n\n\n2  oranges, zested (Optional)\n\n\n1 tablespoon vanilla extract\n\n\n2 pounds white masa harina (corn flour)\n\n\n3 tablespoons baking powder\n\n\n1 ½ teaspoons ground cinnamon (Optional)\n\n\n1 teaspoon all-purpose flour'}]</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Beat shortening and sugar in a large bowl with an electric mixer until creamy. Mix in eggs, orange zest, and vanilla."},{"recipe_directions":"Combine corn flour, baking powder, cinnamon, and flour in another bowl; stir to combine. Add 1/2 of the flour mixture to the shortening mixture; mix on low speed until combined. Add remaining flour mixture and knead with your hands until dough is combined."},{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Roll a small portion of dough into a thin log; pinch the ends together to form a small ring. Place onto an ungreased baking sheet. Repeat with the rest of the dough, placing coricos as closely together on two baking sheets as you like; they do not spread."},{"recipe_directions":"Bake in the preheated oven until coricos are golden brown all over, about 45 minutes, switching racks halfway through."},{"recipe_directions":"Remove from the oven and transfer to wire racks to cool."}]</t>
         </is>
       </c>
-      <c r="L15" s="1" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="M15" s="1" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"90\nCalories\n\n\n5g \nFat\n\n\n11g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699641264-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>Mexican Cookies</t>
         </is>
       </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14695/desserts/cookies/international-cookies/mexican-cookies/</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/zaOvMkrkke6oJXX8IS450uD1rVw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2264581-0a932c179d0944a59330b1958dc2a6d8.jpg"
@@ -1203,69 +1492,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/9878/margarita-balls-i/</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Margarita Balls I</t>
         </is>
       </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n24 \n\n\nYield:\n4 dozen"}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 (12 ounce) package vanilla wafers\n\n\n½ pound ground almonds\n\n\n4 ounces white chocolate\n\n\n¼ cup tequila\n\n\n¼ cup orange marmalade\n\n\n2 tablespoons light corn syrup"}]</t>
-        </is>
-      </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (12 ounce) package vanilla wafers\n\n\n½ pound ground almonds\n\n\n4 ounces white chocolate\n\n\n¼ cup tequila\n\n\n¼ cup orange marmalade\n\n\n2 tablespoons light corn syrup'}]</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix 1 box (12 oz) vanilla wafers, crushed into crumbs, with 1/2 lb ground blanched almonds."},{"recipe_directions":"Melt four 1 oz squares white chocolate according to package directions."},{"recipe_directions":"In blender, process tequila, orange marmalade, and light corn syrup until smooth. Stir, along with melted chocolate, into crumb mixture."},{"recipe_directions":"Shape into 1-inch balls and coat with sugar. Store in refrigerator."}]</t>
         </is>
       </c>
-      <c r="L16" s="1" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="M16" s="1" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"166\nCalories\n\n\n9g \nFat\n\n\n18g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699641270-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>Mexican Cookies</t>
         </is>
       </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14695/desserts/cookies/international-cookies/mexican-cookies/</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/TqlzNNNFhkBL20OaDsgoENZY6FA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4053376-f90b00b479994379a2dbfd8e4f6ed44e.jpg"
@@ -1278,69 +1563,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/10420/mexican-sugar-cookies/</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Mexican Sugar Cookies</t>
         </is>
       </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Servings:\n12 \n\n\nYield:\n2 dozen"}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2 ½ cups shortening\n\n\n1 cup white sugar\n\n\n1 teaspoon anise seed, ground\n\n\n2  eggs\n\n\n6 cups all-purpose flour\n\n\n1 tablespoon baking powder\n\n\n½ tablespoon cream of tartar\n\n\n½ teaspoon salt\n\n\n¼ cup orange juice\n\n\n3 tablespoons ground cinnamon\n\n\n1 cup white sugar"}]</t>
-        </is>
-      </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 ½ cups shortening\n\n\n1 cup white sugar\n\n\n1 teaspoon anise seed, ground\n\n\n2  eggs\n\n\n6 cups all-purpose flour\n\n\n1 tablespoon baking powder\n\n\n½ tablespoon cream of tartar\n\n\n½ teaspoon salt\n\n\n¼ cup orange juice\n\n\n3 tablespoons ground cinnamon\n\n\n1 cup white sugar'}]</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Beat shortening until light and fluffy. Add one cup sugar, and anise seed. Mix until creamy. Add eggs and mix well. Add flour, baking power, cream of tartar, salt and orange juice. Mix well."},{"recipe_directions":"Knead dough until smooth. On lightly floured surface, roll to 1/2 inch thick. Cut using cookie cutter into different shapes. Bake until light brown, 5 - 8 minutes. Roll cookies in mixture of 1 cup sugar and 3 tablespoons of cinnamon while still warm."}]</t>
         </is>
       </c>
-      <c r="L17" s="1" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="M17" s="1" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"755\nCalories\n\n\n44g \nFat\n\n\n84g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699641275-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>Mexican Cookies</t>
         </is>
       </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14695/desserts/cookies/international-cookies/mexican-cookies/</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/10FoUFFCmDqvbpR4V17PUxPvlUY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4344584-polvorones-de-canele-cinnamon-cookies-My-Hot-Southern-Mess-4x3-1-2adde1cc967b4b058471aaae60c814da.jpg"
@@ -1354,69 +1635,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/10848/polvorones-de-canele-cinnamon-cookies/</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Polvorones de Canele (Cinnamon Cookies)</t>
         </is>
       </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n24 \n\n\nYield:\n2 dozen"}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup butter\n\n\n½ cup confectioners' sugar\n\n\n½ teaspoon ground cinnamon\n\n\n¼ teaspoon salt\n\n\n1 teaspoon vanilla extract\n\n\n1 ½ cups all-purpose flour\n\n\n1 cup confectioners' sugar\n\n\n1 teaspoon ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "1 cup butter\n\n\n½ cup confectioners' sugar\n\n\n½ teaspoon ground cinnamon\n\n\n¼ teaspoon salt\n\n\n1 teaspoon vanilla extract\n\n\n1 ½ cups all-purpose flour\n\n\n1 cup confectioners' sugar\n\n\n1 teaspoon ground cinnamon"}]</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Grease two cookie sheets."},{"recipe_directions":"Beat butter and 1/2 cup confectioners' sugar in a bowl using an electric mixer until smooth. Stir in vanilla. Combine flour, salt, and 1/2 teaspoon of cinnamon; stir into butter mixture to form a stiff dough. Shape dough into 1-inch balls."},{"recipe_directions":"Mix 1 cup confectioners' sugar and 1 teaspoon cinnamon together in a shallow bowl. Roll balls in cinnamon mixture to coat; transfer cookies to prepared cookie sheets."},{"recipe_directions":"Bake in the preheated oven until nicely browned, about 15 to 20 minutes. Cool cookies on wire racks."}]</t>
         </is>
       </c>
-      <c r="L18" s="1" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="M18" s="1" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"126\nCalories\n\n\n8g \nFat\n\n\n14g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699641284-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>Mexican Cookies</t>
         </is>
       </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14695/desserts/cookies/international-cookies/mexican-cookies/</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/iQoXEHhXygUDJKsrxCP_yXeP5qs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1786717-2463be01caa74a7d95dfdb9aa3308c28.jpg"
@@ -1429,136 +1706,104 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/88027/biscochitos-traditional-cookies/</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Biscochitos Traditional Cookies</t>
         </is>
       </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n72 \n\n\nYield:\n6 dozen"}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"6 cups all-purpose flour\n\n\n1 tablespoon baking powder\n\n\n¼ teaspoon salt\n\n\n2 cups lard, softened\n\n\n1 ½ cups white sugar\n\n\n2 teaspoons anise seed\n\n\n2  eggs\n\n\n¼ cup brandy\n\n\n¼ cup white sugar\n\n\n1 tablespoon ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 cups all-purpose flour\n\n\n1 tablespoon baking powder\n\n\n¼ teaspoon salt\n\n\n2 cups lard, softened\n\n\n1 ½ cups white sugar\n\n\n2 teaspoons anise seed\n\n\n2  eggs\n\n\n¼ cup brandy\n\n\n¼ cup white sugar\n\n\n1 tablespoon ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Sift flour, baking powder, and salt into a bowl; set aside."},{"recipe_directions":"Beat lard and 1 1/2 cups sugar together in a large bowl with an electric mixer until smooth. Add anise seed and beat until fluffy. Stir in eggs, one at a time. Add brandy; stir in flour mixture to form a dough."},{"recipe_directions":"Roll dough with a floured rolling pin to a thickness of 1/4 or 1/2 inch. Cut dough with a fleur-de-lis cookie cutter, or other simple shape. Place cookies onto ungreased baking sheets. Mix 1/4 cup of sugar and cinnamon together in a small bowl; sprinkle over cookies."},{"recipe_directions":"Bake in the preheated oven until the edges are golden brown, about 10 minutes."}]</t>
         </is>
       </c>
-      <c r="L19" s="1" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"U.S. Recipes"},{"recipe_tags":"U.S. Recipes by State"},{"recipe_tags":"New Mexico Recipes"}]</t>
         </is>
       </c>
-      <c r="M19" s="1" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"113\nCalories\n\n\n6g \nFat\n\n\n13g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699641293-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>Flan</t>
         </is>
       </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14445/desserts/custards-and-puddings/flan/</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>Flan</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="M20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699641299-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>Flan</t>
         </is>
       </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14445/desserts/custards-and-puddings/flan/</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/NU4Geti03V2MJs6a1Joo_NE2pzE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/887297-64292df9388c420d968bf1f4511e8fa4.jpg"
@@ -1571,69 +1816,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/33056/mango-pudding-flan-de-mango/</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Mango Pudding (Flan de Mango)</t>
         </is>
       </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup white sugar\n\n\n1 tablespoon lemon juice\n\n\n2 cups pureed mango\n\n\n1 (14 ounce) can sweetened condensed milk\n\n\n2 tablespoons cornstarch\n\n\n1 tablespoon rum (Optional)\n\n\n1 cup evaporated milk\n\n\n6  eggs, beaten\n\n\n1 pinch salt"}]</t>
-        </is>
-      </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup white sugar\n\n\n1 tablespoon lemon juice\n\n\n2 cups pureed mango\n\n\n1 (14 ounce) can sweetened condensed milk\n\n\n2 tablespoons cornstarch\n\n\n1 tablespoon rum (Optional)\n\n\n1 cup evaporated milk\n\n\n6  eggs, beaten\n\n\n1 pinch salt'}]</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Fill a large, shallow baking pan with about 1 1/2 inches water."},{"recipe_directions":"In an 8x13 inch aluminum baking pan over medium heat, mix the sugar and lemon juice. Cook and stir until caramelized. Remove from heat, and blend in mango, sweetened condensed milk, cornstarch, rum, evaporated milk, eggs, and salt."},{"recipe_directions":"Set pan with the mango mixture into the pan with water. Place in the preheated oven, and bake 45 minutes, or until firm. Cool before turning out onto a platter."}]</t>
         </is>
       </c>
-      <c r="L21" s="1" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Caribbean"}]</t>
         </is>
       </c>
-      <c r="M21" s="1" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"259\nCalories\n\n\n7g \nFat\n\n\n43g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699641306-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>Flan</t>
         </is>
       </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14445/desserts/custards-and-puddings/flan/</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/vmWPA_etdwnEO_wT4VVjsm7h1KU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(662x0:664x2):format(webp)/5816629-dbff576ad2d844b3a34f9313b99a9372.jpg"
@@ -1644,69 +1885,65 @@
 Pumpkin Flan</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/268361/pumpkin-flan/</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Pumpkin Flan</t>
         </is>
       </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 (8 ounce) container silken tofu\n\n\n½ cup pumpkin puree\n\n\n¼ cup applesauce\n\n\n¼ cup cornstarch\n\n\n2  eggs\n\n\n3 tablespoons maple syrup\n\n\n1 teaspoon vanilla extract\n\n\n1 teaspoon pumpkin pie spice\n\n\n1 drop orange food coloring (Optional)"},{"ingredients":"¼ cup 70% to 80% dark chocolate, chopped\n\n\n2 tablespoons heavy whipping cream\n\n\n1 teaspoon honey\n\n\n2 teaspoons butter"}]</t>
-        </is>
-      </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (8 ounce) container silken tofu\n\n\n½ cup pumpkin puree\n\n\n¼ cup applesauce\n\n\n¼ cup cornstarch\n\n\n2  eggs\n\n\n3 tablespoons maple syrup\n\n\n1 teaspoon vanilla extract\n\n\n1 teaspoon pumpkin pie spice\n\n\n1 drop orange food coloring (Optional)'}, {'recipe_ingredients': '¼ cup 70% to 80% dark chocolate, chopped\n\n\n2 tablespoons heavy whipping cream\n\n\n1 teaspoon honey\n\n\n2 teaspoons butter'}]</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Place a tart pan on a baking sheet."},{"recipe_directions":"Combine silken tofu, pumpkin puree, applesauce, cornstarch, eggs, maple syrup, vanilla extract, pumpkin pie spice, and food coloring in a bowl. Puree using a stick blender until smooth. Pour batter into the tart pan, filling only halfway."},{"recipe_directions":"Bake in the preheated oven until flan has set, about 25 minutes. Remove from oven and cool completely before inverting onto a serving plate."},{"recipe_directions":"Place chocolate in a metal bowl. Heat cream, honey, and butter in a small saucepan until almost boiling and pour over chocolate. Leave for 1 minute, then stir well until chocolate has melted. Transfer chocolate ganache to a piping bag fitted with a small tip and decorate pumpkin flan. Refrigerate until serving."}]</t>
         </is>
       </c>
-      <c r="L22" s="1" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Custards and Puddings"},{"recipe_tags":"Flan Recipes"}]</t>
         </is>
       </c>
-      <c r="M22" s="1" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"135\nCalories\n\n\n7g \nFat\n\n\n16g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699641313-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>Flan</t>
         </is>
       </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14445/desserts/custards-and-puddings/flan/</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/NGtrMW3PuHV6XOBAthFpqdWPXFQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1124x0:1126x2):format(webp)/8047825-2d846258ea034a9da9f4d527cf36e7ca.jpg"
@@ -1717,69 +1954,65 @@
 Instant Pot Bahn Flan (Vietnamese Flan)</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/279981/instant-pot-bahn-flan-vietnamese-flan/</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Instant Pot Bahn Flan (Vietnamese Flan)</t>
         </is>
       </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n35 mins\n\n\nAdditional Time:\n 4 hrs 10 mins\n\n\nTotal Time:\n 5 hrs\n\n\nServings:\n3"}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2 cups milk\n\n\n1 ⅔ cups white sugar, divided\n\n\n4 large eggs\n\n\n1 large egg yolk\n\n\n1 teaspoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups milk\n\n\n1 ⅔ cups white sugar, divided\n\n\n4 large eggs\n\n\n1 large egg yolk\n\n\n1 teaspoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Warm milk in a saucepan over medium heat. Add 2/3 cup sugar and stir to dissolve, about 3 minutes. Make sure milk does not boil; turn off heat if necessary."},{"recipe_directions":"Whisk eggs and egg yolk by hand; do not overmix. Pour slowly into the warm milk-sugar mixture and stir continuously over low heat for 1 1/2 minutes."},{"recipe_directions":"Strain through a tightly woven mesh strainer into a bowl to remove any solids that may have formed. Add vanilla extract to the bowl; mix until well combined. Set aside."},{"recipe_directions":"Pour 1 cup sugar into a wide skillet over medium heat. Stir occasionally with a wooden spoon until sugar has evenly melted and turned a golden caramel color, about 5 minutes. Immediately remove from heat and pour into a pressure cooker-safe cake pan, coating the bottom with liquid sugar. Pour in custard. Cover tightly with aluminum foil."},{"recipe_directions":"Place a trivet in the bottom of a multi-functional pressure cooker (such as Instant Pot) and add 1 cup water. Place the cake pan onto the trivet and close and lock the lid. Seal the valve and select high pressure according to manufacturer's instructions; set timer for 9 minutes. Allow 10 to 15 minutes for pressure to build."},{"recipe_directions":"Release pressure using the natural-release method according to manufacturer's instructions, for 10 minutes, then turn the valve to Venting to release remaining pressure. Unlock and remove the lid. Remove the trivet and pan."},{"recipe_directions":"Allow to cool for 1 hour, then chill for at least 3 to 4 hours, or overnight. Slide knife carefully around the edges and hold the bottom securely as you invert onto a large serving dish; the caramel should drip over the flan and onto the plate."}]</t>
         </is>
       </c>
-      <c r="L23" s="1" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Vietnamese"}]</t>
         </is>
       </c>
-      <c r="M23" s="1" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"628\nCalories\n\n\n11g \nFat\n\n\n120g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699641317-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
         <is>
           <t>Flan</t>
         </is>
       </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14445/desserts/custards-and-puddings/flan/</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/nl-29MiRPgnQ5wgLsrVCvNLT_XQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(658x0:660x2):format(webp)/Screen-Shot-2021-02-19-at-12.19.54-PM-b7d9240af5fb4edba2de9b12ea1c1f29.png"
@@ -1791,69 +2024,65 @@
 7 Absolutely Irresistible Mexican Flan Recipes</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/gallery/mexican-flan-recipes/</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>7 Absolutely Irresistible Mexican Flan Recipes</t>
         </is>
       </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="L24" s="1" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Custards and Puddings"},{"recipe_tags":"Flan Recipes"}]</t>
         </is>
       </c>
-      <c r="M24" s="1" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699641322-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>Flan</t>
         </is>
       </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14445/desserts/custards-and-puddings/flan/</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/m3RqNIRYBGQgZduPrPYXTSDh9WM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(767x0:769x2):format(webp)/6172610-02aafea343be4d81984733e0cbf91834.jpg"
@@ -1866,69 +2095,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/220155/white-chocolate-flan/</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>White Chocolate Flan</t>
         </is>
       </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr 20 mins\n\n\nAdditional Time:\n 5 hrs\n\n\nTotal Time:\n 6 hrs 35 mins\n\n\nServings:\n10 \n\n\nYield:\n10 servings"}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup white sugar\n\n\n2 tablespoons brown sugar\n\n\n2 tablespoons water\n\n\n1 (12 ounce) package white chocolate chips\n\n\n1 (8 ounce) package cream cheese, softened\n\n\n1 (8 ounce) container mascarpone cheese\n\n\n1 (12 fluid ounce) can evaporated milk\n\n\n1 (14 ounce) can sweetened condensed milk\n\n\n3  eggs"}]</t>
-        </is>
-      </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup white sugar\n\n\n2 tablespoons brown sugar\n\n\n2 tablespoons water\n\n\n1 (12 ounce) package white chocolate chips\n\n\n1 (8 ounce) package cream cheese, softened\n\n\n1 (8 ounce) container mascarpone cheese\n\n\n1 (12 fluid ounce) can evaporated milk\n\n\n1 (14 ounce) can sweetened condensed milk\n\n\n3  eggs'}]</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine white and brown sugar and water in a saucepan over medium-high heat. Stir occasionally to dissolve the sugar completely, but stop stirring once the mixture comes to a boil to prevent the sugar from crystallizing."},{"recipe_directions":"Swirl the pan gently to redistribute the caramel as the sugar begins to darken. Cook to about 310 degrees F (160 degrees C), or until the sugar turns light golden brown. Remove from heat immediately, as sugar will continue to darken."},{"recipe_directions":"Pour the caramel in an 8-inch baking dish, coating the bottom and sides of the dish. Let caramel harden, about 5 minutes."},{"recipe_directions":"Preheat an oven to 325 degrees F (165 degrees C)."},{"recipe_directions":"Melt the white chocolate in a microwave-safe glass or ceramic bowl in 30-second intervals, stirring after each melting, for 1 to 3 minutes (depending on your microwave). Do not overheat or chocolate will scorch."},{"recipe_directions":"Cream together the cream cheese, mascarpone cheese, evaporated milk, sweetened condensed milk, eggs, and melted white chocolate in a bowl until smooth."},{"recipe_directions":"Pour the cream cheese mixture over the hardened caramel."},{"recipe_directions":"Place baking dish in a large roasting pan. Fill the roasting pan with about 1-inch water."},{"recipe_directions":"Bake in the preheated oven until a knife inserted into the center comes out clean, about 1 hour."},{"recipe_directions":"Refrigerate until completely chilled, 5 to 6 hours. To serve, run a paring knife along the edges of the baking dish to loosen the flan. Cover the baking dish with a plate, and invert it to tip the flan out of the pan and onto the plate."}]</t>
         </is>
       </c>
-      <c r="L25" s="1" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Custards and Puddings"},{"recipe_tags":"Flan Recipes"}]</t>
         </is>
       </c>
-      <c r="M25" s="1" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"652\nCalories\n\n\n38g \nFat\n\n\n68g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1699641329-25</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>Flan</t>
         </is>
       </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14445/desserts/custards-and-puddings/flan/</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/BMW6KmtEXPPo3xDu4vkXerRhAyw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/686564-5fd90e17f57b4533a51535af2dc3cf35.jpg"
@@ -1941,69 +2166,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/214804/pina-colada-flan/</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Pina Colada Flan</t>
         </is>
       </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 1 hr\n\n\nAdditional Time:\n 2 hrs 30 mins\n\n\nTotal Time:\n 3 hrs 40 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup white sugar\n\n\n8  beaten eggs\n\n\n2 (15 ounce) cans sweetened cream of coconut (such as Coco Lopez®)\n\n\n1 (14 ounce) can sweetened condensed milk\n\n\n5 tablespoons pineapple juice\n\n\n1 tablespoon shaved coconut (toasted if desired) (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup white sugar\n\n\n8  beaten eggs\n\n\n2 (15 ounce) cans sweetened cream of coconut (such as Coco Lopez®)\n\n\n1 (14 ounce) can sweetened condensed milk\n\n\n5 tablespoons pineapple juice\n\n\n1 tablespoon shaved coconut (toasted if desired) (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Place sugar in a small saucepan over medium heat. Cook gently, without stirring, but shaking occasionally until the sugar has melted. Continue cooking until the sugar has completely melted and turned golden brown. Pour into a large round glass baking dish. Spread the caramel evenly over the bottom of the dish, then set aside to cool for 15 minutes before proceeding."},{"recipe_directions":"In a bowl, whisk together eggs, cream of coconut, condensed milk, and pineapple juice until thoroughly combined and smooth. Pour the egg mixture over the caramel in the baking dish. Place a kitchen towel in a large roasting pan, and set the baking dish on the towel. Place the roasting pan into the preheated oven, and carefully fill the roasting pan with water about halfway up the side of the flan dish."},{"recipe_directions":"Bake until a knife inserted in the center of the flan comes out clean, about 1 hour."},{"recipe_directions":"Remove roasting pan from oven, and allow the flan to cool sitting in its water bath, about 30 minutes. Refrigerate the flan until thoroughly cold, at least 2 hours. To unmold, run a knife all around the edge of the flan to loosen the sides. Place a serving platter on the dish, and quickly flip the pan over to remove the flan onto the platter. Spoon any liquid caramel from the baking dish over the flan, and allow the caramel sauce to pool around the flan. Sprinkle with shaved coconut, and refrigerate until serving."}]</t>
         </is>
       </c>
-      <c r="L26" s="1" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Caribbean"}]</t>
         </is>
       </c>
-      <c r="M26" s="1" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"746\nCalories\n\n\n28g \nFat\n\n\n117g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1699641333-26</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>Flan</t>
         </is>
       </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14445/desserts/custards-and-puddings/flan/</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/0a3YYtlzqao-496UBvbbqlw3IpE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/396072-9dc1ae44458d41a7b6499c0391dd10f2.jpg"
@@ -2016,69 +2237,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/19049/flan-i/</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Flan I</t>
         </is>
       </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr 10 mins\n\n\nTotal Time:\n 1 hr 25 mins\n\n\nServings:\n8 \n\n\nYield:\n1 to 9 - inch round"}]</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"8  eggs\n\n\n1 (14 ounce) can sweetened condensed milk\n\n\n1 ½ teaspoons vanilla extract\n\n\n1 ½ cups white sugar"}]</t>
-        </is>
-      </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8  eggs\n\n\n1 (14 ounce) can sweetened condensed milk\n\n\n1 ½ teaspoons vanilla extract\n\n\n1 ½ cups white sugar'}]</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 300 degrees F (150 degrees C). Have ready 9 inch round cake pan."},{"recipe_directions":"In blender or food processor, or using electric mixer, combine eggs, condensed milk and vanilla and blend until smooth. In medium sauce pan, cook sugar, stirring constantly, until it liquefies. When it starts to turn light brown, remove from heat and pour into waiting pan. Pour egg mixture over liquid sugar."},{"recipe_directions":"Line a roasting pan with a damp kitchen towel. Place baking dish on towel, inside roasting pan, and place roasting pan on oven rack. Fill roasting pan with water to reach halfway up the sides of the baking dish."},{"recipe_directions":"Bake 70 minutes in the preheated oven, or until knife inserted in center comes out clean. Remove pan from water bath and let cool completely, about 1 hour. Run a knife along the edge of the pan, place a serving plate on top and invert. Serve."}]</t>
         </is>
       </c>
-      <c r="L27" s="1" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="M27" s="1" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"376\nCalories\n\n\n9g \nFat\n\n\n65g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1699641338-27</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>Flan</t>
         </is>
       </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14445/desserts/custards-and-puddings/flan/</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/AEbITF_nu5mvHrFb5jLAkWn00ug=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/92225-d42d2d1651d84963915c1518096c64e0.jpg"
@@ -2091,69 +2308,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/66549/pumpkin-pie-flan/</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Pumpkin Pie Flan</t>
         </is>
       </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 1 hr\n\n\nAdditional Time:\n 3 hrs\n\n\nTotal Time:\n 4 hrs 10 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"½ cup white sugar\n\n\n1 (14 ounce) can pumpkin pie filling\n\n\n1 (12 ounce) can evaporated milk\n\n\n1 (5 ounce) can sweetened condensed milk\n\n\n6  eggs\n\n\n½ cup white sugar\n\n\n1 teaspoon vanilla extract\n\n\n1 teaspoon allspice"}]</t>
-        </is>
-      </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup white sugar\n\n\n1 (14 ounce) can pumpkin pie filling\n\n\n1 (12 ounce) can evaporated milk\n\n\n1 (5 ounce) can sweetened condensed milk\n\n\n6  eggs\n\n\n½ cup white sugar\n\n\n1 teaspoon vanilla extract\n\n\n1 teaspoon allspice'}]</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 375 degrees F (190 degrees C)."},{"recipe_directions":"Melt 1/2 cup sugar in an aluminum loaf pan and heat over medium heat. Continue to cook until it caramelizes, being careful to not burn the sugar. Fill a large pot of water with about 1 inch of water and place over medium heat. Move the aluminum pan into the large pot and set into the water."},{"recipe_directions":"Combine the pumpkin pie filling, evaporated milk, condensed milk, eggs, 1/2 cup sugar, vanilla, and allspice in a blender, blend until smooth. Pour the mixture into the loaf pan."},{"recipe_directions":"Bake in preheated oven until a knife inserted in the center comes out clean, about 1 hour. Refrigerate for at least 3 hours, or overnight."},{"recipe_directions":"Run a knife along the edge of the loaf pan to loosen the flan. Invert the pan onto a serving plate and tap to release the dessert."}]</t>
         </is>
       </c>
-      <c r="L28" s="1" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="M28" s="1" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"283\nCalories\n\n\n9g \nFat\n\n\n43g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1699641343-28</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>Flan</t>
         </is>
       </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14445/desserts/custards-and-puddings/flan/</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -2165,69 +2378,65 @@
 Filipino Leche Flan</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/262427/filipino-leche-flan/</t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Filipino Leche Flan</t>
         </is>
       </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 2 hrs 10 mins\n\n\nTotal Time:\n 2 hrs 20 mins\n\n\nServings:\n10 \n\n\nYield:\n10 servings"}]</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"2 cups white sugar, divided\n\n\n¾ cup water\n\n\n2 (11.3 ounce) cans evaporated milk\n\n\n8  egg yolks\n\n\n  zest of 1 lime"}]</t>
-        </is>
-      </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups white sugar, divided\n\n\n¾ cup water\n\n\n2 (11.3 ounce) cans evaporated milk\n\n\n8  egg yolks\n\n\n  zest of 1 lime'}]</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 325 degrees F (165 degrees C)."},{"recipe_directions":"Combine 1 cup sugar and water in a saucepan over medium heat. Heat until sugar is dissolved and mixture is thickened and light brown, 7 to 10 minutes. Line the inside of a flan mold with the caramel mixture, tilting the mold to make sure the whole surface is covered."},{"recipe_directions":"Combine remaining 1 cup sugar, evaporated milk, egg yolks, and lime zest in a bowl. Gently mix, not beat, until yolks are all broken and blended. Strain the custard through a sieve to remove the zest. Pour mixture into the flan mold. Place flan mold in a larger baking pan filled with water."},{"recipe_directions":"Bake in the preheated oven until firm, about 2 hours."}]</t>
         </is>
       </c>
-      <c r="L29" s="1" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Filipino"}]</t>
         </is>
       </c>
-      <c r="M29" s="1" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"293\nCalories\n\n\n9g \nFat\n\n\n48g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>1699641347-29</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>Flan</t>
         </is>
       </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14445/desserts/custards-and-puddings/flan/</t>
         </is>
       </c>
-      <c r="E30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/2j84bxgVZ0GsgrCJvFq5_6KyiBk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/36538-5ea80e1811c4401e9cbd7a095494b087.jpg"
@@ -2240,69 +2449,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/90358/aracelys-flan/</t>
         </is>
       </c>
-      <c r="H30" s="1" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Aracely's Flan</t>
         </is>
       </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 1 hr 10 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr 50 mins\n\n\nServings:\n10 \n\n\nYield:\n10 servings"}]</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"10  egg yolks\n\n\n1 (14 ounce) can sweetened condensed milk\n\n\n1 (12 ounce) can evaporated milk\n\n\n3 tablespoons margarine\n\n\n3 tablespoons brown sugar"}]</t>
-        </is>
-      </c>
-      <c r="K30" s="1" t="inlineStr">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '10  egg yolks\n\n\n1 (14 ounce) can sweetened condensed milk\n\n\n1 (12 ounce) can evaporated milk\n\n\n3 tablespoons margarine\n\n\n3 tablespoons brown sugar'}]</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk together the yolks, condensed milk, and evaporated milk; set aside. Melt margarine in a small saucepan over medium heat. Stir in the brown sugar; keep stirring until the brown sugar has dissolved, and is smooth. Evenly spread the sugar over the bottom of a pie plate, then pour in the custard. Cover with foil. (See Cook's Note.)"},{"recipe_directions":"Fill a large pot approximately 3/4 full with water and bring to a simmer on the stove. Place the pie plate over the simmering water and cook for 65 to 70 minutes, until flan has set. Remove flan from the boiling water and allow to cool for at least 30 minutes."},{"recipe_directions":"To serve, loosen the flan from the pie plate by running a knife around the edges; invert onto a serving plate. Serve at room temperature or cold."}]</t>
         </is>
       </c>
-      <c r="L30" s="1" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Custards and Puddings"},{"recipe_tags":"Flan Recipes"}]</t>
         </is>
       </c>
-      <c r="M30" s="1" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"268\nCalories\n\n\n14g \nFat\n\n\n29g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>1699641350-30</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>Flan</t>
         </is>
       </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14445/desserts/custards-and-puddings/flan/</t>
         </is>
       </c>
-      <c r="E31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/mQGZahgOPc6pD0Dhrx_BOKIslNg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(299x0:301x2):format(webp)/829191-59134b082224463598105807d7315577.jpg"
@@ -2314,69 +2519,65 @@
 Cool, Creamy Flan: The Perfect Warm-Weather Dessert</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/article/perfect-flan/</t>
         </is>
       </c>
-      <c r="H31" s="1" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Cool, Creamy Flan: The Perfect Warm-Weather Dessert</t>
         </is>
       </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="J31" s="1" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="K31" s="1" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="L31" s="1" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Kitchen Tips"},{"recipe_tags":"How To"},{"recipe_tags":"Baking"}]</t>
         </is>
       </c>
-      <c r="M31" s="1" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>1699641356-31</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>Flan</t>
         </is>
       </c>
-      <c r="D32" s="1" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14445/desserts/custards-and-puddings/flan/</t>
         </is>
       </c>
-      <c r="E32" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/H-EoiH5Q3rZb7UKlD1W76NDUKC8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/178582-1bf8ac44b3e04a49ae63655d6e2c2c86.jpg"
@@ -2389,69 +2590,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/25648/caramel-glazed-flan/</t>
         </is>
       </c>
-      <c r="H32" s="1" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Caramel-Glazed Flan</t>
         </is>
       </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n8 \n\n\nYield:\n1 - 9-inch round"}]</t>
         </is>
       </c>
-      <c r="J32" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"¾ cup white sugar\n\n\n2  egg yolks\n\n\n6  egg whites\n\n\n1 ¾ cups water\n\n\n1 (14 ounce) can low-fat sweetened condensed milk\n\n\n½ teaspoon vanilla extract\n\n\n1 pinch salt"}]</t>
-        </is>
-      </c>
-      <c r="K32" s="1" t="inlineStr">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¾ cup white sugar\n\n\n2  egg yolks\n\n\n6  egg whites\n\n\n1 ¾ cups water\n\n\n1 (14 ounce) can low-fat sweetened condensed milk\n\n\n½ teaspoon vanilla extract\n\n\n1 pinch salt'}]</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"In a heavy skillet over medium-low heat, cook and stir sugar until melted and light brown. Carefully pour into a 9-inch round baking dish, tilting the dish to coat the bottom completely."},{"recipe_directions":"In a medium bowl, beat egg yolks and egg whites. Stir in water, condensed milk, vanilla and salt until smooth. Pour into prepared dish. Line a roasting pan with a damp kitchen towel. Place baking dish on towel, inside roasting pan, and place roasting pan on oven rack. Fill roasting pan with boiling water to reach halfway up the sides of the baking dish."},{"recipe_directions":"Bake in preheated oven 1 hour, until center is just set (still a bit jiggly). Remove dish to a wire rack to cool for one hour. Then refrigerate several hours or overnight."},{"recipe_directions":"To unmold, run a knife around the edge of the pan and invert onto a rimmed serving platter."}]</t>
         </is>
       </c>
-      <c r="L32" s="1" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Custards and Puddings"},{"recipe_tags":"Flan Recipes"}]</t>
         </is>
       </c>
-      <c r="M32" s="1" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"327\nCalories\n\n\n4g \nFat\n\n\n60g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>1699641360-32</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t>Flan</t>
         </is>
       </c>
-      <c r="D33" s="1" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14445/desserts/custards-and-puddings/flan/</t>
         </is>
       </c>
-      <c r="E33" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/5RXTJ9PQwBWnaFPXYkFsnZam-Mo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(729x0:731x2):format(webp)/9062913-f1f177d5dd1b4539ba8dfa3304a07fcf.jpg"
@@ -2464,69 +2661,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/283398/jericallas-mexican-baked-custards/</t>
         </is>
       </c>
-      <c r="H33" s="1" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Jericallas (Mexican Baked Custards)</t>
         </is>
       </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n10"}]</t>
         </is>
       </c>
-      <c r="J33" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 quart whole milk\n\n\n1 cup white sugar\n\n\n1 teaspoon vanilla extract\n\n\n2 (3 inch) pieces cinnamon sticks\n\n\n5 large eggs, beaten"}]</t>
-        </is>
-      </c>
-      <c r="K33" s="1" t="inlineStr">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 quart whole milk\n\n\n1 cup white sugar\n\n\n1 teaspoon vanilla extract\n\n\n2 (3 inch) pieces cinnamon sticks\n\n\n5 large eggs, beaten'}]</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"Combine milk, sugar, vanilla extract, and cinnamon sticks in a small saucepan over medium heat. Simmer for 3 minutes, then turn off and allow to cool until lukewarm."},{"recipe_directions":"Add 3 tablespoons of the milk mixture to the beaten eggs and stir to combine."},{"recipe_directions":"Remove cinnamon sticks from the milk and discard. Gradually beat eggs into the lukewarm milk mixture until combined. Pour mixture into ramekins and place them in a large roasting tin. Add enough water so it reaches halfway up the sides of the ramekins."},{"recipe_directions":"Bake in the preheated oven until tops are lightly browned, about 40 minutes. Check the water level every so often so it does not cook dry, adding more water if needed."}]</t>
         </is>
       </c>
-      <c r="L33" s="1" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"},{"recipe_tags":"Desserts"}]</t>
         </is>
       </c>
-      <c r="M33" s="1" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"175\nCalories\n\n\n6g \nFat\n\n\n26g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>1699641364-33</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
         <is>
           <t>Flan</t>
         </is>
       </c>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14445/desserts/custards-and-puddings/flan/</t>
         </is>
       </c>
-      <c r="E34" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/C0oCmjsoqs6e93noQ2AdByjT4lM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1341x0:1343x2):format(webp)/4518021-1239fbdb00ff471b9a8e6766b1881168.jpg"
@@ -2539,69 +2732,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/246831/super-easy-cream-cheese-flan/</t>
         </is>
       </c>
-      <c r="H34" s="1" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Super Easy Cream Cheese Flan</t>
         </is>
       </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 1 hr 8 mins\n\n\nAdditional Time:\n 3 hrs\n\n\nTotal Time:\n 4 hrs 18 mins\n\n\nServings:\n10 \n\n\nYield:\n1 round baking dish"}]</t>
         </is>
       </c>
-      <c r="J34" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 ½ cups white sugar\n\n\n¼ cup water\n\n\n1 (14 ounce) can sweetened condensed milk\n\n\n1 (12 ounce) can evaporated milk\n\n\n5  eggs\n\n\n1 (8 ounce) package cream cheese\n\n\n1 teaspoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="K34" s="1" t="inlineStr">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups white sugar\n\n\n¼ cup water\n\n\n1 (14 ounce) can sweetened condensed milk\n\n\n1 (12 ounce) can evaporated milk\n\n\n5  eggs\n\n\n1 (8 ounce) package cream cheese\n\n\n1 teaspoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Heat sugar and water together in a small saucepan over medium heat, stirring occasionally, until sugar dissolves into a light brown caramel, 8 to 10 minutes. Pour into a round glass baking dish."},{"recipe_directions":"Place condensed milk, evaporated milk, eggs, cream cheese, and vanilla extract in a blender; blend into a smooth custard. Pour over caramelized sugar in the baking dish."},{"recipe_directions":"Place baking dish in a deep baking pan. Pour in enough water to reach halfway up the baking dish."},{"recipe_directions":"Bake in the preheated oven until custard is set and top is light brown, about 1 hour."},{"recipe_directions":"Cover with plastic wrap; refrigerate until cold, 3 to 4 hours."}]</t>
         </is>
       </c>
-      <c r="L34" s="1" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Custards and Puddings"},{"recipe_tags":"Flan Recipes"}]</t>
         </is>
       </c>
-      <c r="M34" s="1" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"403\nCalories\n\n\n16g \nFat\n\n\n56g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>1699641368-34</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
         <is>
           <t>Flan</t>
         </is>
       </c>
-      <c r="D35" s="1" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14445/desserts/custards-and-puddings/flan/</t>
         </is>
       </c>
-      <c r="E35" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/zzIDx8zppXxThVAqn0Mx14g0N04=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/718099-3059a5cbbbc749cf9f08b7afc25aec49.jpg"
@@ -2614,69 +2803,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/219066/coconut-cheese-flan-flan-de-coco-y-queso/</t>
         </is>
       </c>
-      <c r="H35" s="1" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Coconut Cheese Flan (Flan de Coco y Queso)</t>
         </is>
       </c>
-      <c r="I35" s="1" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 1 hr\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n 1 hr 40 mins\n\n\nServings:\n16 \n\n\nYield:\n16 servings"}]</t>
         </is>
       </c>
-      <c r="J35" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup white sugar\n\n\n8 large eggs\n\n\n12 ounces cream cheese at room temperature\n\n\n1 (10 ounce) can sweetened condensed milk\n\n\n1 (15 ounce) can cream of coconut (such as Coco Lopez®)\n\n\n1 (14 ounce) can coconut milk\n\n\n1 (12 ounce) can evaporated milk\n\n\n1 tablespoon coconut-flavored rum (such as Bacardi® Coconut™)\n\n\n2 teaspoons vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="K35" s="1" t="inlineStr">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup white sugar\n\n\n8 large eggs\n\n\n12 ounces cream cheese at room temperature\n\n\n1 (10 ounce) can sweetened condensed milk\n\n\n1 (15 ounce) can cream of coconut (such as Coco Lopez®)\n\n\n1 (14 ounce) can coconut milk\n\n\n1 (12 ounce) can evaporated milk\n\n\n1 tablespoon coconut-flavored rum (such as Bacardi® Coconut™)\n\n\n2 teaspoons vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"In a heavy skillet over medium-low heat, cook and stir sugar with a wooden spoon until melted and golden, about 10 minutes. Caramel is very hot. Very carefully pour the caramel into a 9-inch round, 3-inch deep baking dish. Swirl dish to cover bottom and sides. The caramel will harden as it cools."},{"recipe_directions":"Combine the eggs, cream cheese, and sweetened condensed milk in a blender. Cover, and blend on High until well combined; transfer to a large bowl. Pour the cream of coconut, coconut milk, evaporated milk, coconut-flavored rum, and vanilla extract into the blender; cover and blend on High until well combined. Pour into the bowl with the cream cheese mixture. Whisk until incorporated. Pour the flan mixture into the caramel-coated baking dish."},{"recipe_directions":"Line a roasting pan with a damp kitchen towel. Place the filled baking dish on the towel, and place roasting pan in the preheated oven. Fill roasting pan with boiling water to reach halfway up the sides of the baking dish. Bake until the flan is set and a knife inserted in the center comes out clean, about 1 hour. Transfer to a wire rack; cool. Refrigerate flan until ready to serve."},{"recipe_directions":"To serve, run a knife around the edges of the pan and flip the flan out onto a serving platter. Spoon any caramel remaining in the baking dish over the flan."}]</t>
         </is>
       </c>
-      <c r="L35" s="1" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="M35" s="1" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"398\nCalories\n\n\n23g \nFat\n\n\n42g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>1699641371-35</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
         <is>
           <t>Flan</t>
         </is>
       </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14445/desserts/custards-and-puddings/flan/</t>
         </is>
       </c>
-      <c r="E36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/KtKKYzvXyYnnKbOaT-ha1Ay3J68=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3371246-simple-and-creamy-spanish-flan-duboo-4x3-1-576448d3a1994084a57b5087fdb77155.jpg"
@@ -2690,69 +2875,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G36" s="1" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/231051/simple-and-creamy-spanish-flan/</t>
         </is>
       </c>
-      <c r="H36" s="1" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Simple and Creamy Spanish Flan</t>
         </is>
       </c>
-      <c r="I36" s="1" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n55 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 3 hrs 10 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="J36" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup boiling water, or as needed\n\n\n¾ cup white sugar, divided\n\n\n1 teaspoon water\n\n\n6 large egg yolks\n\n\n1 (14 ounce) can sweetened condensed milk\n\n\n1 (13 ounce) can evaporated milk\n\n\n1 teaspoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="K36" s="1" t="inlineStr">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup boiling water, or as needed\n\n\n¾ cup white sugar, divided\n\n\n1 teaspoon water\n\n\n6 large egg yolks\n\n\n1 (14 ounce) can sweetened condensed milk\n\n\n1 (13 ounce) can evaporated milk\n\n\n1 teaspoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 325 degrees F (165 degrees C). Place a 9-inch metal pie dish into a deep baking pan; pour boiling water into the baking pan to reach about halfway up the sides of the pie dish to make a water bath."},{"recipe_directions":"Pour 1/2 cup sugar and 1 teaspoon water into a heavy saucepan over medium heat. Gently swirl mixture in the pan until sugar dissolves, melts, and turns into a golden-brown caramel syrup, about 10 minutes. Watch carefully, as sugar burns easily. Pour melted caramel into the warmed pie dish; gently tilt the dish to coat the bottom with caramel."},{"recipe_directions":"Whisk egg yolks, condensed milk, evaporated milk, remaining 1/4 cup sugar, and vanilla in a bowl until creamy and thoroughly combined. If mixture is foamy, skim foam off with a folded paper towel. Gently pour custard over caramel in the pie dish. Cover the baking pan with aluminum foil."},{"recipe_directions":"Bake in the preheated oven until custard is set but jiggles slightly when nudged, 45 minutes to 1 hour. Remove foil and place flan with the water bath in the refrigerator until chilled, about 2 hours."},{"recipe_directions":"Remove the pie dish from the water bath; run a knife around the edges of flan. Invert flan onto a rimmed serving platter to release custard; let caramel sauce flow over flan."}]</t>
         </is>
       </c>
-      <c r="L36" s="1" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"Spanish"}]</t>
         </is>
       </c>
-      <c r="M36" s="1" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"332\nCalories\n\n\n11g \nFat\n\n\n51g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>1699641374-36</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
         <is>
           <t>Flan</t>
         </is>
       </c>
-      <c r="D37" s="1" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14445/desserts/custards-and-puddings/flan/</t>
         </is>
       </c>
-      <c r="E37" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Z9ImOJgkhrAzA2d3QAsl3IfwlT0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2126304-c8b21814ad874053bb56e03b4a0d9356.jpg"
@@ -2765,69 +2946,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/109921/coconut-flan/</t>
         </is>
       </c>
-      <c r="H37" s="1" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Coconut Flan</t>
         </is>
       </c>
-      <c r="I37" s="1" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n 4 hrs\n\n\nTotal Time:\n 4 hrs 30 mins\n\n\nServings:\n12 \n\n\nYield:\n1 large flan"}]</t>
         </is>
       </c>
-      <c r="J37" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"6  eggs\n\n\n1 (14 ounce) can sweetened condensed milk\n\n\n1 (12 fluid ounce) can evaporated milk\n\n\n1 (15 ounce) can coconut milk\n\n\n1 ½ cups whole milk\n\n\n1 teaspoon vanilla extract\n\n\n1 cup white sugar"}]</t>
-        </is>
-      </c>
-      <c r="K37" s="1" t="inlineStr">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6  eggs\n\n\n1 (14 ounce) can sweetened condensed milk\n\n\n1 (12 fluid ounce) can evaporated milk\n\n\n1 (15 ounce) can coconut milk\n\n\n1 ½ cups whole milk\n\n\n1 teaspoon vanilla extract\n\n\n1 cup white sugar'}]</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Place the sugar in a nonstick skillet, and slowly melt over low heat without stirring. Shake the pan by it's handle to mix, but do not stir with a spoon. When the sugar has melted, pour into a 3 quart glass baking dish, coating the bottom."},{"recipe_directions":"In a large bowl, beat the eggs with an electric mixer until smooth. Pour in the condensed milk, evaporated milk, coconut milk, whole milk, and vanilla; mix until well blended, about 2 minutes. Pour the egg mixture over the sugar in the pan. Place the pan inside of a larger dish and set in the oven. Fill the outer pan with water to 1 inch deep."},{"recipe_directions":"Bake for 1 hour in the preheated oven, or until a toothpick inserted in the center comes out clean. Remove the flan from the water bath, and refrigerate until cold, 4 hours to overnight."},{"recipe_directions":"To serve, run a knife around the edges of the dish to loosen the flan, then invert onto a serving dish."}]</t>
         </is>
       </c>
-      <c r="L37" s="1" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Custards and Puddings"},{"recipe_tags":"Flan Recipes"}]</t>
         </is>
       </c>
-      <c r="M37" s="1" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"333\nCalories\n\n\n16g \nFat\n\n\n40g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>1699641378-37</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
         <is>
           <t>Flan</t>
         </is>
       </c>
-      <c r="D38" s="1" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14445/desserts/custards-and-puddings/flan/</t>
         </is>
       </c>
-      <c r="E38" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F38" s="1" t="inlineStr">
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/hxvjb8nwv_Zv2ewo9e4Jey9k9Ek=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/228447-coconut-milk-flan-lutzflcat-1x1-1-185f9cd2ab754061b5c5feb3e7446f65.jpg"
@@ -2841,69 +3018,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/228447/coconut-milk-flan/</t>
         </is>
       </c>
-      <c r="H38" s="1" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Coconut Milk Flan</t>
         </is>
       </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr 15 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 3 hrs 30 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="J38" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"¾ cup white sugar\n\n\n¾ cup whole milk\n\n\n1 cup coconut milk\n\n\n½ (12 fluid ounce) can evaporated milk\n\n\n½ (14 ounce) can sweetened condensed milk\n\n\n½ teaspoon vanilla extract\n\n\n3  eggs"}]</t>
-        </is>
-      </c>
-      <c r="K38" s="1" t="inlineStr">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¾ cup white sugar\n\n\n¾ cup whole milk\n\n\n1 cup coconut milk\n\n\n½ (12 fluid ounce) can evaporated milk\n\n\n½ (14 ounce) can sweetened condensed milk\n\n\n½ teaspoon vanilla extract\n\n\n3  eggs'}]</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Grease 6 (4-ounce) ramekins."},{"recipe_directions":"Slowly melt sugar in a large skillet over low heat, stirring constantly, until browned but not scorched, about 8 minutes. Divide caramel equally among the ramekins and allow to cool."},{"recipe_directions":"Combine whole milk, coconut milk, evaporated milk, sweetened condensed milk, and vanilla extract in a saucepan over low heat. Stir continuously until it begins to steam, about 5 minutes."},{"recipe_directions":"Whisk 3 eggs together in a bowl; slowly pour beaten eggs into the warm milk mixture, whisking constantly until the custard is combined."},{"recipe_directions":"Place ramekins in a casserole dish and fill with boiling water to reach halfway up the sides of the ramekins. Divide custard evenly among ramekins, over the caramel sauce, about 1/2 inch from the top. Cover casserole dish tightly with foil. Bake in the preheated oven until the custard is set, about 1 hour. A knife gently inserted into the center of a flan should come out clean."},{"recipe_directions":"Remove ramekins from the water bath and allow to cool to room temperature. Refrigerate for 2 to 3 hours before serving to chill completely. Run the tip of a paring knife around the edges to release the flan. Place a plate over the top of the ramekin and flip to release the flan onto the plate, caramel side up."}]</t>
         </is>
       </c>
-      <c r="L38" s="1" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Custards and Puddings"},{"recipe_tags":"Flan Recipes"}]</t>
         </is>
       </c>
-      <c r="M38" s="1" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"373\nCalories\n\n\n17g \nFat\n\n\n49g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>1699641381-38</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
         <is>
           <t>Flan</t>
         </is>
       </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14445/desserts/custards-and-puddings/flan/</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/YVgp8RnyekIE5gdG2VilqWkYXKs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4612273-cd2052510bc7412f9f9e13c2c6045e40.jpg"
@@ -2916,69 +3089,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G39" s="1" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/263114/sous-vide-flan/</t>
         </is>
       </c>
-      <c r="H39" s="1" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Sous Vide Flan</t>
         </is>
       </c>
-      <c r="I39" s="1" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 1 hr 5 mins\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n 1 hr 35 mins\n\n\nServings:\n8 \n\n\nYield:\n8 jars"}]</t>
         </is>
       </c>
-      <c r="J39" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"¾ cup white sugar\n\n\n8  4-ounce Mason® jars with lids and rings\n\n\n1 (14 ounce) can sweetened condensed milk\n\n\n1 (12 fluid ounce) can evaporated milk\n\n\n3  eggs\n\n\n1 tablespoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="K39" s="1" t="inlineStr">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¾ cup white sugar\n\n\n8  4-ounce Mason® jars with lids and rings\n\n\n1 (14 ounce) can sweetened condensed milk\n\n\n1 (12 fluid ounce) can evaporated milk\n\n\n3  eggs\n\n\n1 tablespoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place a sous vide cooker inside a large heat-proof container filled with water. Preheat the water bath to 179 degrees F (82 degrees C)."},{"recipe_directions":"Melt sugar in a small saucepan over medium heat until browned, about 5 minutes. Pour hot melted sugar into eight 4 ounce Mason jars, enough to cover the bottom of each."},{"recipe_directions":"Mix sweetened condensed milk, evaporated milk, eggs, and vanilla extract together in a separate bowl. Add to the jars; seal."},{"recipe_directions":"Place jars in the water bath and set timer for 1 hour."},{"recipe_directions":"Remove jars from the water bath. Let flan cool until safe to handle, about 20 minutes."},{"recipe_directions":"Unseal jars and run a small rubber spatula around the sides of the flan. Top each flan with a plate;invert and gently shake to release."}]</t>
         </is>
       </c>
-      <c r="L39" s="1" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Custards and Puddings"},{"recipe_tags":"Flan Recipes"}]</t>
         </is>
       </c>
-      <c r="M39" s="1" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"325\nCalories\n\n\n10g \nFat\n\n\n51g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>1699641386-39</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
         <is>
           <t>Flan</t>
         </is>
       </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14445/desserts/custards-and-puddings/flan/</t>
         </is>
       </c>
-      <c r="E40" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/s_Ko6R_ohHqZjyvkmugX1fpLrRo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3512487-7a0a91065e104aaba6d128ebd8452630.jpg"
@@ -2991,69 +3160,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G40" s="1" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/202261/brazilian-style-flan-pudim-de-leite-condensado/</t>
         </is>
       </c>
-      <c r="H40" s="1" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Brazilian Style Flan (Pudim de Leite Condensado)</t>
         </is>
       </c>
-      <c r="I40" s="1" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n55 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 3 hrs 15 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="J40" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup white sugar\n\n\n4  eggs, separated\n\n\n1 (14 ounce) can sweetened condensed milk\n\n\n¾ cup milk, plus\n\n\n2 tablespoons milk"}]</t>
-        </is>
-      </c>
-      <c r="K40" s="1" t="inlineStr">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup white sugar\n\n\n4  eggs, separated\n\n\n1 (14 ounce) can sweetened condensed milk\n\n\n¾ cup milk, plus\n\n\n2 tablespoons milk'}]</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Melt the sugar in a heavy saucepan over low heat, stirring constantly. Once the sugar becomes a golden brown syrup after about 10 minutes, pour it immediately into a round baking dish, swirling so that the syrup coats all sides of the dish. Set aside to cool."},{"recipe_directions":"Place the egg yolks into a blender and blend on medium for 5 minutes, then add condensed milk, 3/4 cup plus 2 tablespoons milk, and egg whites. Continue to blend until all ingredients are combined. Pour egg mixture into the baking dish and cover with aluminum foil. Line a roasting pan with a damp kitchen towel. Place baking dish on towel, inside roasting pan, and place roasting pan on oven rack. Fill roasting pan with boiling water to reach halfway up the sides of the baking dish."},{"recipe_directions":"Bake in the preheated oven until a knife inserted 1 inch from the edge comes out clean, 45 to 50 minutes. The center of the flan will still be soft. Allow flan to cool before unmolding onto a plate. Refrigerate before serving."}]</t>
         </is>
       </c>
-      <c r="L40" s="1" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"South American"},{"recipe_tags":"Brazilian"}]</t>
         </is>
       </c>
-      <c r="M40" s="1" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"303\nCalories\n\n\n7g \nFat\n\n\n53g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>1699641393-40</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
         <is>
           <t>Flan</t>
         </is>
       </c>
-      <c r="D41" s="1" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14445/desserts/custards-and-puddings/flan/</t>
         </is>
       </c>
-      <c r="E41" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F41" s="1" t="inlineStr">
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/5oBGSlWAeEqgyMG_SvMgFlLZDX0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2126017-3099d72f03f6476ca05ab7edbb7bf91b.jpg"
@@ -3066,69 +3231,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/109661/microwave-flan/</t>
         </is>
       </c>
-      <c r="H41" s="1" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Microwave Flan</t>
         </is>
       </c>
-      <c r="I41" s="1" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n8 \n\n\nYield:\n1 to 9 - inch flan"}]</t>
         </is>
       </c>
-      <c r="J41" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"3 cups white sugar, divided\n\n\n2 cups milk\n\n\n1 tablespoon vanilla extract\n\n\n4  eggs"}]</t>
-        </is>
-      </c>
-      <c r="K41" s="1" t="inlineStr">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups white sugar, divided\n\n\n2 cups milk\n\n\n1 tablespoon vanilla extract\n\n\n4  eggs'}]</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat 1 cup of sugar (dry) in a saucepan over medium heat. Do not stir until you start to see the sugar melting and bubbling. When the sugar is completely melted and golden brown, pour it into a 9 inch glass or ceramic pie plate and tilt to coat."},{"recipe_directions":"In a large bowl, mix the milk, remaining sugar, vanilla and eggs until well blended. Pour into the pie plate."},{"recipe_directions":"Cook in the microwave at 50% power for 7 minutes, then cook at 100% power for 8 minutes. A knife inserted into the center of the flan should come out clean when it is done. If it is not done after the 8 minutes, cook at one minute intervals, checking each time. Cool and refrigerate before serving."},{"recipe_directions":"To serve, warm the bottom of the pie plate over a pan of simmering water to loosen the caramelized sugar. Place a serving plate on top of the dish, and invert so that the flan is on the serving dish and the caramelized coating is on top."}]</t>
         </is>
       </c>
-      <c r="L41" s="1" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Custards and Puddings"},{"recipe_tags":"Flan Recipes"}]</t>
         </is>
       </c>
-      <c r="M41" s="1" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"361\nCalories\n\n\n4g \nFat\n\n\n78g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>1699641398-41</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
         <is>
           <t>Flan</t>
         </is>
       </c>
-      <c r="D42" s="1" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14445/desserts/custards-and-puddings/flan/</t>
         </is>
       </c>
-      <c r="E42" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F42" s="1" t="inlineStr">
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/lIvMF86poVJ-1LLqYdp31ZHN7c0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/829191-f00ac0324b5b4bd3b120883ac2264b7f.jpg"
@@ -3141,69 +3302,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G42" s="1" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/20524/flan-ii/</t>
         </is>
       </c>
-      <c r="H42" s="1" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Flan II</t>
         </is>
       </c>
-      <c r="I42" s="1" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="J42" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"½ cup white sugar\n\n\n2 cups milk\n\n\n2  eggs, beaten\n\n\n2  egg yolks, beaten\n\n\n⅜ cup white sugar"}]</t>
-        </is>
-      </c>
-      <c r="K42" s="1" t="inlineStr">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup white sugar\n\n\n2 cups milk\n\n\n2  eggs, beaten\n\n\n2  egg yolks, beaten\n\n\n⅜ cup white sugar'}]</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"In a heavy bottomed saucepan over medium heat, melt 1/2 cup sugar until golden. Carefully pour hot sugar evenly into four oven-proof ramekins or custard cups, tilting cups to coat bottoms evenly."},{"recipe_directions":"In another saucepan, bring milk just to boiling over medium heat. Stir hot milk, a little at a time, into beaten eggs and egg yolks, until well combined. Stir in sugar. Pour milk mixture evenly into ramekins."},{"recipe_directions":"Line a roasting pan with a damp kitchen towel. Place ramekins on towel, inside roasting pan, and place roasting pan on oven rack. Fill roasting pan with boiling water to reach halfway up the sides of the ramekins."},{"recipe_directions":"Bake in preheated oven 40 minutes, until set. Let cool, invert and serve."}]</t>
         </is>
       </c>
-      <c r="L42" s="1" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"Spanish"}]</t>
         </is>
       </c>
-      <c r="M42" s="1" t="inlineStr">
+      <c r="M42" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"292\nCalories\n\n\n7g \nFat\n\n\n50g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>1699641401-42</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
         <is>
           <t>Flan</t>
         </is>
       </c>
-      <c r="D43" s="1" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14445/desserts/custards-and-puddings/flan/</t>
         </is>
       </c>
-      <c r="E43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F43" s="1" t="inlineStr">
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/4Ca0sHPkNbDIMyZR8_f3CHga-ko=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(449x0:451x2):format(webp)/4573359-original-mexican-flan-napolitano-gem-1x1-1-f43f7497504d49c9b5b90bd90331c21b.jpg"
@@ -3217,69 +3374,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G43" s="1" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/260650/original-mexican-flan-napolitano/</t>
         </is>
       </c>
-      <c r="H43" s="1" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Original Mexican Flan Napolitano</t>
         </is>
       </c>
-      <c r="I43" s="1" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 1 hr\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="J43" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"¼ cup white sugar\n\n\n1 (14 ounce) can sweetened condensed milk\n\n\n1 (14 ounce) can evaporated milk\n\n\n5  eggs\n\n\n1 (8 ounce) package cream cheese, softened\n\n\n1 teaspoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="K43" s="1" t="inlineStr">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup white sugar\n\n\n1 (14 ounce) can sweetened condensed milk\n\n\n1 (14 ounce) can evaporated milk\n\n\n5  eggs\n\n\n1 (8 ounce) package cream cheese, softened\n\n\n1 teaspoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place sugar into a 9-inch ring mold and cook over medium-high heat, stirring constantly, until sugar melts and turns golden, about 10 minutes. Watch carefully for syrup to start to change color as it burns easily. Let caramel cool and harden, about 20 minutes."},{"recipe_directions":"Combine sweetened condensed milk, evaporated milk, eggs, cream cheese, and vanilla extract in a blender; blend until smooth, about 1 minute. Pour mixture over the hard caramel syrup in the tin and cover with aluminum foil. Pierce foil in the center hole of the ring with a knife; peel back foil, leaving hole uncovered for steam to circulate."},{"recipe_directions":"Place a metal rack inside a large pot over medium heat. Add water to almost reach the rack; bring to a boil. Place the mold on the rack, cover the pot, and steam until flan is set and firm, about 45 minutes. Unmold flan onto a serving plate and let cool before serving."}]</t>
         </is>
       </c>
-      <c r="L43" s="1" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="M43" s="1" t="inlineStr">
+      <c r="M43" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"261\nCalories\n\n\n14g \nFat\n\n\n26g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>1699641404-43</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
         <is>
           <t>Flan</t>
         </is>
       </c>
-      <c r="D44" s="1" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14445/desserts/custards-and-puddings/flan/</t>
         </is>
       </c>
-      <c r="E44" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F44" s="1" t="inlineStr">
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/FdQeXj-BXrrbNvIoUzRnBeIoKhE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(932x932:934x934):format(webp)/9419043_Leche-Flan-1x1-1-d9d3909597e64355a02982bbd4c5a349.jpg"
@@ -3293,69 +3446,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G44" s="1" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/262423/leche-flan/</t>
         </is>
       </c>
-      <c r="H44" s="1" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Leche Flan</t>
         </is>
       </c>
-      <c r="I44" s="1" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 1 hr 10 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr 50 mins\n\n\nServings:\n8 \n\n\nYield:\n1 flan"}]</t>
         </is>
       </c>
-      <c r="J44" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup sugar\n\n\n¾ cup water"},{"ingredients":"1 (13 ounce) can evaporated milk\n\n\n1 (13 ounce) can sweetened condensed milk\n\n\n12  egg yolks\n\n\n1 tablespoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="K44" s="1" t="inlineStr">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup sugar\n\n\n¾ cup water'}, {'recipe_ingredients': '1 (13 ounce) can evaporated milk\n\n\n1 (13 ounce) can sweetened condensed milk\n\n\n12  egg yolks\n\n\n1 tablespoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 325 degrees F (165 degrees C)."},{"recipe_directions":"Combine sugar and water in a saucepan over medium-high heat. Bring to a boil without stirring to avoid the mixture crystallizing. Continue to boil, swirling the pan occasionally, until sugar syrup begins to brown, 7 to 10 minutes. Reduce the heat to medium low and watch the color. Once the caramel is a deep brown, immediately pour it into a flan mold. Carefully tilt the mold to make sure the whole bottom surface is covered."},{"recipe_directions":"Combine evaporated milk, condensed milk, egg yolks, and vanilla extract in a large bowl. Stir lightly to prevent bubbles or foam from forming. Strain batter slowly into the caramel-lined flan mold. Cover with aluminum foil."},{"recipe_directions":"Place a baking dish large enough to hold the flan mold on the oven rack. Set the covered flan in the baking dish and add enough hot water to come halfway up the side of the mold."},{"recipe_directions":"Bake in the preheated oven until firm, about 1 hour. Carefully remove the flan mold from the oven. Let cool, about 30 minutes. Run a paring knife around the edges of the flan. Cover the mold with a rimmed platter and carefully flip it over to release the flan from the mold for serving."}]</t>
         </is>
       </c>
-      <c r="L44" s="1" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Filipino"}]</t>
         </is>
       </c>
-      <c r="M44" s="1" t="inlineStr">
+      <c r="M44" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"387\nCalories\n\n\n14g \nFat\n\n\n55g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>1699641408-44</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
         <is>
           <t>Flan</t>
         </is>
       </c>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14445/desserts/custards-and-puddings/flan/</t>
         </is>
       </c>
-      <c r="E45" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F45" s="1" t="inlineStr">
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/hktKqyk5hKAgndQjarJSSzMzLt0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(599x0:601x2):format(webp)/8586690-flan-de-coco-coconut-flan-Maria-Victoria-Dajud-4x3-1-4563caeb0fd844e3b3f8279fa38999a2.jpg"
@@ -3369,69 +3518,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G45" s="1" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/108362/flan-de-coco-coconut-flan/</t>
         </is>
       </c>
-      <c r="H45" s="1" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Flan de Coco (Coconut Flan)</t>
         </is>
       </c>
-      <c r="I45" s="1" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 1 hr\n\n\nAdditional Time:\n 8 hrs 45 mins\n\n\nTotal Time:\n 9 hrs 55 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="J45" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 ½ cups white sugar, divided\n\n\n1 (14 ounce) can sweetened condensed milk\n\n\n1 (12 fluid ounce) can evaporated milk\n\n\n6 large eggs\n\n\n½ cup milk\n\n\n½ cup fresh shredded coconut"}]</t>
-        </is>
-      </c>
-      <c r="K45" s="1" t="inlineStr">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups white sugar, divided\n\n\n1 (14 ounce) can sweetened condensed milk\n\n\n1 (12 fluid ounce) can evaporated milk\n\n\n6 large eggs\n\n\n½ cup milk\n\n\n½ cup fresh shredded coconut'}]</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Place 1 cup sugar in a small saucepan over medium heat. Cook gently without stirring, but shake occasionally until sugar is melted. Continue cooking until sugar turns golden brown, then pour into a large glass baking dish. Rotate and tilt the dish to spread caramel evenly over the bottom. Set aside for caramel to cool and harden, about 15 minutes."},{"recipe_directions":"Add condensed milk, evaporated milk, eggs, milk, coconut, and remaining 1/2 cup sugar to a blender. Blend until smooth, about 3 minutes. Pour over hardened caramel in the baking dish."},{"recipe_directions":"Bake in the preheated oven until custard is set, about 45 minutes. Allow flan to cool for 30 minutes at room temperature. Run a knife around the edges of the dish to separate the flan from the sides. Refrigerate until completely chilled, 8 hours to overnight."},{"recipe_directions":"To serve, carefully invert flan onto a rimmed serving plate; let caramel sauce flow over flan."}]</t>
         </is>
       </c>
-      <c r="L45" s="1" t="inlineStr">
+      <c r="L45" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Custards and Puddings"},{"recipe_tags":"Flan Recipes"}]</t>
         </is>
       </c>
-      <c r="M45" s="1" t="inlineStr">
+      <c r="M45" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"297\nCalories\n\n\n9g \nFat\n\n\n47g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>1699641414-45</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
         <is>
           <t>Flan</t>
         </is>
       </c>
-      <c r="D46" s="1" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14445/desserts/custards-and-puddings/flan/</t>
         </is>
       </c>
-      <c r="E46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F46" s="1" t="inlineStr">
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/cBTk8hV57OQ1EPvXZ50-Iw-BJnE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1615311-quesillo-venezuelan-flan-imgoingbananas-4x3-1-a6b19557ae5c43b39e7bf7afacfe9517.jpg"
@@ -3445,69 +3590,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G46" s="1" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/262054/quesillo-venezuelan-flan/</t>
         </is>
       </c>
-      <c r="H46" s="1" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Quesillo (Venezuelan Flan)</t>
         </is>
       </c>
-      <c r="I46" s="1" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr 7 mins\n\n\nAdditional Time:\n 8 hrs 25 mins\n\n\nTotal Time:\n 9 hrs 47 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="J46" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup white sugar\n\n\n1 (14 ounce) can sweetened condensed milk\n\n\n1 ¾ cups milk, or as needed\n\n\n3  eggs\n\n\n1 teaspoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="K46" s="1" t="inlineStr">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup white sugar\n\n\n1 (14 ounce) can sweetened condensed milk\n\n\n1 ¾ cups milk, or as needed\n\n\n3  eggs\n\n\n1 teaspoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Prepare a bain-marie, or water bath, by filling a 9-inch heat-proof container with water."},{"recipe_directions":"Melt sugar in a nonstick pan over medium-low heat, stirring constantly until melted, 7 to 10 minutes; be careful to keep it from burning. Pour sugar into a flan mold, coating the sides to ensure that the egg/milk mixture in the next step will not touch the container."},{"recipe_directions":"Pour sweetened condensed milk into a bowl. Fill the empty can with milk and add to the bowl; stir in eggs and vanilla extract. Blend well. Fold mixture with a spatula or tap against the counter to remove air bubbles."},{"recipe_directions":"Pour milk mixture into the slightly cooled flan mold. Put the lid on and place inside the water bath; don't let the water go over the rim."},{"recipe_directions":"Bake the quesillo in the bain-marie in the preheated oven for 45 minutes. Pry lid open with a knife carefully; continue baking until set, about 15 minutes more."},{"recipe_directions":"Let quesillo cool to room temperature, at least 25 minutes; refrigerate 8 hours to overnight. Slide a knife around the edges of the mold to loosen and invert onto a plate."}]</t>
         </is>
       </c>
-      <c r="L46" s="1" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Pies"},{"recipe_tags":"Custard and Cream Pies"}]</t>
         </is>
       </c>
-      <c r="M46" s="1" t="inlineStr">
+      <c r="M46" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"309\nCalories\n\n\n7g \nFat\n\n\n54g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>1699641420-46</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
         <is>
           <t>Flan</t>
         </is>
       </c>
-      <c r="D47" s="1" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14445/desserts/custards-and-puddings/flan/</t>
         </is>
       </c>
-      <c r="E47" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F47" s="1" t="inlineStr">
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/qs3M-mBOB1Chu7VYzpTcyxlnauQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/8898771-bb3a3e29d9164683ae4680f2a1f486e5.jpg"
@@ -3520,69 +3661,65 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G47" s="1" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/22220/creamy-caramel-flan/</t>
         </is>
       </c>
-      <c r="H47" s="1" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Creamy Caramel Flan</t>
         </is>
       </c>
-      <c r="I47" s="1" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr\n\n\nAdditional Time:\n 9 hrs\n\n\nTotal Time:\n 10 hrs 15 mins\n\n\nServings:\n10 \n\n\nYield:\n1 10-inch round"}]</t>
         </is>
       </c>
-      <c r="J47" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"¾ cup white sugar\n\n\n1 (8 ounce) package cream cheese, softened\n\n\n5 large eggs\n\n\n1 (14 ounce) can sweetened condensed milk\n\n\n1 (12 fluid ounce) can evaporated milk\n\n\n1 teaspoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="K47" s="1" t="inlineStr">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¾ cup white sugar\n\n\n1 (8 ounce) package cream cheese, softened\n\n\n5 large eggs\n\n\n1 (14 ounce) can sweetened condensed milk\n\n\n1 (12 fluid ounce) can evaporated milk\n\n\n1 teaspoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Cook sugar in a small, heavy saucepan over medium-low heat, stirring occasionally, until golden. Pour caramel into a 10-inch round baking dish, tilting to coat the bottom and sides. Set aside."},{"recipe_directions":"Beat cream cheese in a large bowl until smooth. Beat in eggs, one at a time, until well incorporated. Mix in milks and vanilla until smooth. Pour into the caramel-coated baking dish."},{"recipe_directions":"Line a roasting pan with a damp kitchen towel. Place the baking dish inside the roasting pan on the towel, then place the roasting pan on the oven rack. Fill the roasting pan with boiling water to reach halfway up the sides of the baking dish."},{"recipe_directions":"Bake in the preheated oven until the center is just set, 50 to 60 minutes. Cool on a wire rack for 1 hour, then place in the refrigerator until completely cooled, 8 hours to overnight."},{"recipe_directions":"To unmold, run a knife around the edges of the baking dish and invert onto a rimmed serving platter."}]</t>
         </is>
       </c>
-      <c r="L47" s="1" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Custards and Puddings"},{"recipe_tags":"Flan Recipes"}]</t>
         </is>
       </c>
-      <c r="M47" s="1" t="inlineStr">
+      <c r="M47" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"350\nCalories\n\n\n17g \nFat\n\n\n41g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>1699641428-47</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1217/world-cuisine/latin-american/mexican/desserts/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
         <is>
           <t>Flan</t>
         </is>
       </c>
-      <c r="D48" s="1" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipes/14445/desserts/custards-and-puddings/flan/</t>
         </is>
       </c>
-      <c r="E48" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F48" s="1" t="inlineStr">
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ar-5yFAHZiIEw2_z-Fd33k6KvWQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4485442-58b33eae8ca844589869edb287572626.jpg"
@@ -3595,42 +3732,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="G48" s="1" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/214091/flan-mexicano-mexican-flan/</t>
         </is>
       </c>
-      <c r="H48" s="1" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Flan Mexicano (Mexican Flan)</t>
         </is>
       </c>
-      <c r="I48" s="1" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n55 mins\n\n\nAdditional Time:\n 5 hrs\n\n\nTotal Time:\n 6 hrs 5 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="J48" s="1" t="inlineStr">
-        <is>
-          <t>[{"ingredients":"1 cup white sugar\n\n\n1 (14 ounce) can sweetened condensed milk\n\n\n1 cup whole milk\n\n\n3 large eggs\n\n\n3 large egg yolks\n\n\n¼ cup freshly squeezed orange juice\n\n\n1 tablespoon grated orange peel\n\n\n1 tablespoon vanilla extract\n\n\n1 tablespoon cornstarch\n\n\n1 cup heavy cream"}]</t>
-        </is>
-      </c>
-      <c r="K48" s="1" t="inlineStr">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup white sugar\n\n\n1 (14 ounce) can sweetened condensed milk\n\n\n1 cup whole milk\n\n\n3 large eggs\n\n\n3 large egg yolks\n\n\n¼ cup freshly squeezed orange juice\n\n\n1 tablespoon grated orange peel\n\n\n1 tablespoon vanilla extract\n\n\n1 tablespoon cornstarch\n\n\n1 cup heavy cream'}]</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place sugar into a heavy saucepan over medium-high heat. Cook, stirring constantly, until sugar melts and turns a golden amber color, about 10 minutes. Watch carefully once syrup begins to change color because it burns quickly. Carefully pour caramel syrup into a flan mold. Set aside to cool."},{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Place an oven rack in the middle position."},{"recipe_directions":"Place sweetened condensed milk, whole milk, eggs, egg yolks, orange juice, orange peel, vanilla, and cornstarch into a blender; blend until smooth, about 1 minute. Pour in cream and pulse several times to incorporate. Pour mixture over cooled caramel syrup in the flan mold."},{"recipe_directions":"Line a roasting pan with a damp kitchen towel. Place the filled flan mold carefully on the towel in the roasting pan, then place the roasting pan on the oven rack. Fill the roasting pan with enough boiling water to reach halfway up the sides of the flan mold."},{"recipe_directions":"Bake in the preheated oven until the center of flan is set but still slightly jiggles when nudged, 45 minutes to 1 hour. Let cool, then refrigerate for at least 4 hours."},{"recipe_directions":"To serve, run a sharp paring knife around the inside of the mold to release flan. Place a serving plate on the mold, then flip the mold over. Gently lift the mold to release flan and allow caramel syrup to cascade over custard. Remove the mold."}]</t>
         </is>
       </c>
-      <c r="L48" s="1" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"}]</t>
         </is>
       </c>
-      <c r="M48" s="1" t="inlineStr">
+      <c r="M48" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"434\nCalories\n\n\n20g \nFat\n\n\n56g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>